--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="380">
   <si>
     <t>院校号</t>
   </si>
@@ -1035,9 +1035,6 @@
   </si>
   <si>
     <t>10570</t>
-  </si>
-  <si>
-    <t>广州医学院</t>
   </si>
   <si>
     <t>10572</t>
@@ -3597,7 +3594,7 @@
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6212,7 +6209,7 @@
         <v>264</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="C131" s="2">
         <v>408</v>
@@ -6229,10 +6226,10 @@
     </row>
     <row r="132" spans="1:6" ht="15">
       <c r="A132" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="C132" s="2">
         <v>1808</v>
@@ -6249,10 +6246,10 @@
     </row>
     <row r="133" spans="1:6" ht="15">
       <c r="A133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="C133" s="2">
         <v>1693</v>
@@ -6269,10 +6266,10 @@
     </row>
     <row r="134" spans="1:6" ht="15">
       <c r="A134" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C134" s="2">
         <v>5457</v>
@@ -6289,10 +6286,10 @@
     </row>
     <row r="135" spans="1:6" ht="15">
       <c r="A135" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C135" s="2">
         <v>15</v>
@@ -6307,10 +6304,10 @@
     </row>
     <row r="136" spans="1:6" ht="15">
       <c r="A136" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="C136" s="2">
         <v>16</v>
@@ -6325,10 +6322,10 @@
     </row>
     <row r="137" spans="1:6" ht="15">
       <c r="A137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="C137" s="2">
         <v>11</v>
@@ -6343,10 +6340,10 @@
     </row>
     <row r="138" spans="1:6" ht="15">
       <c r="A138" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -6361,10 +6358,10 @@
     </row>
     <row r="139" spans="1:6" ht="15">
       <c r="A139" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="C139" s="2">
         <v>6</v>
@@ -6387,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" activeCellId="1" sqref="F108 G14"/>
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6400,7 +6397,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -6643,7 +6640,7 @@
         <v>19248</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -7783,7 +7780,7 @@
         <v>10276</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -8143,7 +8140,7 @@
         <v>19213</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" s="4">
         <v>20</v>
@@ -8303,7 +8300,7 @@
         <v>10570</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="C96" s="4">
         <v>310</v>
@@ -8461,7 +8458,7 @@
         <v>10043</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C104" s="4">
         <v>14</v>
@@ -8515,7 +8512,7 @@
         <v>10126</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C107" s="4">
         <v>7</v>
@@ -8585,7 +8582,7 @@
         <v>10184</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C111" s="4">
         <v>6</v>
@@ -8637,7 +8634,7 @@
         <v>10225</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C114" s="4">
         <v>19</v>
@@ -8887,7 +8884,7 @@
         <v>10564</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C128" s="4">
         <v>5324</v>
@@ -8905,7 +8902,7 @@
         <v>10572</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C129" s="4">
         <v>1807</v>
@@ -9013,7 +9010,7 @@
         <v>10700</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C135" s="4">
         <v>54</v>
@@ -9101,7 +9098,7 @@
         <v>12121</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C140" s="4">
         <v>1899</v>
@@ -9155,7 +9152,7 @@
         <v>19614</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C143" s="4">
         <v>20</v>
@@ -9178,8 +9175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176:F187"/>
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9189,7 +9186,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -9392,7 +9389,7 @@
         <v>19248</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -9552,7 +9549,7 @@
         <v>19002</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -9892,7 +9889,7 @@
         <v>10054</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="5">
         <v>72</v>
@@ -10372,7 +10369,7 @@
         <v>19013</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C60" s="5">
         <v>19</v>
@@ -10412,7 +10409,7 @@
         <v>10079</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" s="5">
         <v>67</v>
@@ -10472,7 +10469,7 @@
         <v>19213</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C65" s="5">
         <v>25</v>
@@ -10492,7 +10489,7 @@
         <v>10276</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66" s="5">
         <v>27</v>
@@ -10692,7 +10689,7 @@
         <v>10491</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="5">
         <v>47</v>
@@ -10752,7 +10749,7 @@
         <v>10425</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C79" s="5">
         <v>40</v>
@@ -10832,7 +10829,7 @@
         <v>11415</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C83" s="5">
         <v>29</v>
@@ -10872,7 +10869,7 @@
         <v>10570</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="C85" s="5">
         <v>208</v>
@@ -10932,7 +10929,7 @@
         <v>10269</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C88" s="5">
         <v>12</v>
@@ -11052,7 +11049,7 @@
         <v>10366</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C94" s="5">
         <v>3</v>
@@ -11092,7 +11089,7 @@
         <v>19614</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C96" s="5">
         <v>20</v>
@@ -11172,7 +11169,7 @@
         <v>11413</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C100" s="5">
         <v>7</v>
@@ -11332,7 +11329,7 @@
         <v>10043</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C108" s="5">
         <v>11</v>
@@ -11386,7 +11383,7 @@
         <v>10126</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C111" s="5">
         <v>6</v>
@@ -11436,7 +11433,7 @@
         <v>10184</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C114" s="5">
         <v>6</v>
@@ -11504,7 +11501,7 @@
         <v>10225</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C118" s="5">
         <v>23</v>
@@ -11736,7 +11733,7 @@
         <v>10564</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C131" s="5">
         <v>5259</v>
@@ -11754,7 +11751,7 @@
         <v>10572</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C132" s="5">
         <v>1462</v>
@@ -11862,7 +11859,7 @@
         <v>10700</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C138" s="5">
         <v>42</v>
@@ -11932,7 +11929,7 @@
         <v>10755</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C142" s="5">
         <v>4</v>
@@ -11948,7 +11945,7 @@
         <v>11414</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C143" s="5">
         <v>16</v>
@@ -11966,7 +11963,7 @@
         <v>12121</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C144" s="5">
         <v>1500</v>
@@ -12002,7 +11999,7 @@
         <v>19359</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C146" s="5">
         <v>64</v>
@@ -12040,7 +12037,7 @@
         <v>10254</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C148" s="7">
         <v>127</v>
@@ -12060,7 +12057,7 @@
         <v>10700</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C149" s="7">
         <v>36</v>
@@ -12120,7 +12117,7 @@
         <v>10490</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C152" s="7">
         <v>34</v>
@@ -12158,7 +12155,7 @@
         <v>10110</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C154" s="7">
         <v>94</v>
@@ -12176,7 +12173,7 @@
         <v>10126</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C155" s="7">
         <v>41</v>
@@ -12212,7 +12209,7 @@
         <v>10184</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C157" s="7">
         <v>8</v>
@@ -12230,7 +12227,7 @@
         <v>10186</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C158" s="7">
         <v>150</v>
@@ -12248,7 +12245,7 @@
         <v>10212</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C159" s="7">
         <v>61</v>
@@ -12264,7 +12261,7 @@
         <v>10214</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C160" s="7">
         <v>121</v>
@@ -12316,7 +12313,7 @@
         <v>10224</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C163" s="7">
         <v>24</v>
@@ -12334,7 +12331,7 @@
         <v>10225</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C164" s="7">
         <v>24</v>
@@ -12352,7 +12349,7 @@
         <v>10264</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C165" s="7">
         <v>81</v>
@@ -12370,7 +12367,7 @@
         <v>10298</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C166" s="7">
         <v>80</v>
@@ -12388,7 +12385,7 @@
         <v>10366</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C167" s="7">
         <v>8</v>
@@ -12406,7 +12403,7 @@
         <v>10394</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C168" s="7">
         <v>52</v>
@@ -12424,7 +12421,7 @@
         <v>10404</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C169" s="7">
         <v>59</v>
@@ -12442,7 +12439,7 @@
         <v>10407</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C170" s="7">
         <v>100</v>
@@ -12460,7 +12457,7 @@
         <v>10427</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C171" s="7">
         <v>100</v>
@@ -12478,7 +12475,7 @@
         <v>10475</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C172" s="7">
         <v>94</v>
@@ -12496,7 +12493,7 @@
         <v>10534</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C173" s="7">
         <v>72</v>
@@ -12514,7 +12511,7 @@
         <v>10536</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C174" s="7">
         <v>161</v>
@@ -12532,7 +12529,7 @@
         <v>10537</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C175" s="7">
         <v>130</v>
@@ -12550,7 +12547,7 @@
         <v>10538</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C176" s="7">
         <v>94</v>
@@ -12568,7 +12565,7 @@
         <v>10555</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C177" s="7">
         <v>180</v>
@@ -12586,7 +12583,7 @@
         <v>10566</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C178" s="7">
         <v>1311</v>
@@ -12604,7 +12601,7 @@
         <v>10571</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C179" s="7">
         <v>688</v>
@@ -12622,7 +12619,7 @@
         <v>10572</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="7">
         <v>1299</v>
@@ -12640,7 +12637,7 @@
         <v>10616</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C181" s="7">
         <v>64</v>
@@ -12658,7 +12655,7 @@
         <v>10626</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C182" s="7">
         <v>10</v>
@@ -12694,7 +12691,7 @@
         <v>11414</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C184" s="7">
         <v>19</v>
@@ -12712,7 +12709,7 @@
         <v>19635</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C185" s="7">
         <v>48</v>
@@ -12730,7 +12727,7 @@
         <v>60145</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C186" s="7">
         <v>15</v>
@@ -12748,7 +12745,7 @@
         <v>60173</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C187" s="7">
         <v>10</v>
@@ -12771,8 +12768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12782,7 +12779,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -12797,7 +12794,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
@@ -12905,7 +12902,7 @@
         <v>19248</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="12">
         <v>8</v>
@@ -12945,7 +12942,7 @@
         <v>19246</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="12">
         <v>15</v>
@@ -13085,7 +13082,7 @@
         <v>19002</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C16" s="12">
         <v>6</v>
@@ -13525,7 +13522,7 @@
         <v>10269</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="12">
         <v>20</v>
@@ -13825,7 +13822,7 @@
         <v>19213</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="12">
         <v>30</v>
@@ -13885,7 +13882,7 @@
         <v>11846</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C56" s="12">
         <v>1821</v>
@@ -14125,7 +14122,7 @@
         <v>10276</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68" s="12">
         <v>34</v>
@@ -14185,7 +14182,7 @@
         <v>19614</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C71" s="12">
         <v>30</v>
@@ -14245,7 +14242,7 @@
         <v>10366</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" s="12">
         <v>8</v>
@@ -14305,7 +14302,7 @@
         <v>10590</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" s="12">
         <v>620</v>
@@ -14525,7 +14522,7 @@
         <v>12121</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88" s="12">
         <v>1262</v>
@@ -14765,7 +14762,7 @@
         <v>10570</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C100" s="12">
         <v>441</v>
@@ -15005,7 +15002,7 @@
         <v>10343</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C112" s="12">
         <v>15</v>
@@ -15065,7 +15062,7 @@
         <v>10043</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115" s="12">
         <v>16</v>
@@ -15155,7 +15152,7 @@
         <v>10126</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C120" s="12">
         <v>7</v>
@@ -15223,7 +15220,7 @@
         <v>10184</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C124" s="12">
         <v>6</v>
@@ -15277,7 +15274,7 @@
         <v>10224</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C127" s="12">
         <v>79</v>
@@ -15295,7 +15292,7 @@
         <v>10225</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C128" s="12">
         <v>26</v>
@@ -15473,7 +15470,7 @@
         <v>10564</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C138" s="12">
         <v>5622</v>
@@ -15491,7 +15488,7 @@
         <v>10572</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C139" s="12">
         <v>1322</v>
@@ -15545,7 +15542,7 @@
         <v>10626</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C142" s="12">
         <v>20</v>
@@ -15579,7 +15576,7 @@
         <v>10700</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C144" s="12">
         <v>45</v>
@@ -15649,7 +15646,7 @@
         <v>10755</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C148" s="12">
         <v>4</v>
@@ -15665,7 +15662,7 @@
         <v>11078</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C149" s="12">
         <v>767</v>
@@ -15683,7 +15680,7 @@
         <v>11845</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C150" s="12">
         <v>4949</v>
@@ -15701,7 +15698,7 @@
         <v>19141</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C151" s="12">
         <v>13</v>
@@ -15737,7 +15734,7 @@
         <v>19359</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C153" s="12">
         <v>80</v>
@@ -15760,8 +15757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15771,7 +15768,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -15974,7 +15971,7 @@
         <v>19246</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="15">
         <v>11</v>
@@ -16074,7 +16071,7 @@
         <v>19248</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -16254,7 +16251,7 @@
         <v>10269</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="15">
         <v>18</v>
@@ -16654,7 +16651,7 @@
         <v>80001</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C45" s="15">
         <v>242</v>
@@ -16794,7 +16791,7 @@
         <v>19614</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" s="15">
         <v>55</v>
@@ -16834,7 +16831,7 @@
         <v>19213</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" s="15">
         <v>35</v>
@@ -16854,7 +16851,7 @@
         <v>10276</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C55" s="15">
         <v>30</v>
@@ -16894,7 +16891,7 @@
         <v>10590</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C57" s="15">
         <v>1211</v>
@@ -16934,7 +16931,7 @@
         <v>11414</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C59" s="15">
         <v>17</v>
@@ -17094,7 +17091,7 @@
         <v>19013</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="15">
         <v>26</v>
@@ -17114,7 +17111,7 @@
         <v>12121</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C68" s="15">
         <v>1128</v>
@@ -17254,7 +17251,7 @@
         <v>10054</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C75" s="15">
         <v>86</v>
@@ -17274,7 +17271,7 @@
         <v>60384</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C76" s="15">
         <v>12</v>
@@ -17394,7 +17391,7 @@
         <v>11415</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C82" s="15">
         <v>35</v>
@@ -17434,7 +17431,7 @@
         <v>60652</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C84" s="15">
         <v>4</v>
@@ -17454,7 +17451,7 @@
         <v>11413</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C85" s="15">
         <v>17</v>
@@ -17494,7 +17491,7 @@
         <v>10343</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C87" s="15">
         <v>15</v>
@@ -17514,7 +17511,7 @@
         <v>10366</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C88" s="15">
         <v>8</v>
@@ -17534,7 +17531,7 @@
         <v>10491</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C89" s="15">
         <v>84</v>
@@ -17594,7 +17591,7 @@
         <v>10319</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C92" s="15">
         <v>2</v>
@@ -17734,7 +17731,7 @@
         <v>10421</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C99" s="15">
         <v>93</v>
@@ -17754,7 +17751,7 @@
         <v>10425</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C100" s="15">
         <v>55</v>
@@ -17774,7 +17771,7 @@
         <v>10043</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C101" s="15">
         <v>6</v>
@@ -17914,7 +17911,7 @@
         <v>19141</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C108" s="15">
         <v>14</v>
@@ -18034,7 +18031,7 @@
         <v>11078</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C114" s="15">
         <v>1183</v>
@@ -18054,7 +18051,7 @@
         <v>10570</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C115" s="15">
         <v>1129</v>
@@ -18194,7 +18191,7 @@
         <v>11845</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C122" s="15">
         <v>7340</v>
@@ -18214,7 +18211,7 @@
         <v>10564</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C123" s="15">
         <v>4754</v>
@@ -18324,7 +18321,7 @@
         <v>10079</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C129" s="15">
         <v>80</v>
@@ -18378,7 +18375,7 @@
         <v>10126</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C132" s="15">
         <v>6</v>
@@ -18482,7 +18479,7 @@
         <v>10184</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C138" s="15">
         <v>6</v>
@@ -18532,7 +18529,7 @@
         <v>10224</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C141" s="15">
         <v>34</v>
@@ -18548,7 +18545,7 @@
         <v>10225</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C142" s="15">
         <v>16</v>
@@ -18584,7 +18581,7 @@
         <v>10254</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C144" s="15">
         <v>134</v>
@@ -18602,7 +18599,7 @@
         <v>10264</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C145" s="15">
         <v>81</v>
@@ -18674,7 +18671,7 @@
         <v>10338</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C149" s="15">
         <v>130</v>
@@ -18692,7 +18689,7 @@
         <v>10490</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C150" s="15">
         <v>30</v>
@@ -18710,7 +18707,7 @@
         <v>10537</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C151" s="15">
         <v>101</v>
@@ -18726,7 +18723,7 @@
         <v>10538</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C152" s="15">
         <v>94</v>
@@ -18742,7 +18739,7 @@
         <v>10555</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C153" s="15">
         <v>100</v>
@@ -18760,7 +18757,7 @@
         <v>10572</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C154" s="15">
         <v>1214</v>
@@ -18796,7 +18793,7 @@
         <v>10626</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C156" s="15">
         <v>10</v>
@@ -18814,7 +18811,7 @@
         <v>10700</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C157" s="15">
         <v>36</v>
@@ -18884,7 +18881,7 @@
         <v>10755</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C161" s="15">
         <v>2</v>
@@ -18900,7 +18897,7 @@
         <v>19002</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C162" s="15">
         <v>10</v>
@@ -18936,7 +18933,7 @@
         <v>19359</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C164" s="15">
         <v>64</v>
@@ -18959,8 +18956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18970,7 +18967,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -18979,7 +18976,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -19073,7 +19070,7 @@
         <v>19248</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -19093,7 +19090,7 @@
         <v>19246</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -19313,7 +19310,7 @@
         <v>10027</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
@@ -19393,7 +19390,7 @@
         <v>19002</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22" s="7">
         <v>10</v>
@@ -19433,7 +19430,7 @@
         <v>10269</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="7">
         <v>25</v>
@@ -19473,7 +19470,7 @@
         <v>19335</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -20033,7 +20030,7 @@
         <v>10276</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="7">
         <v>16</v>
@@ -20093,7 +20090,7 @@
         <v>19614</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C57" s="7">
         <v>55</v>
@@ -20133,7 +20130,7 @@
         <v>60384</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C59" s="7">
         <v>16</v>
@@ -20193,7 +20190,7 @@
         <v>10054</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C62" s="7">
         <v>87</v>
@@ -20273,7 +20270,7 @@
         <v>10590</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C66" s="7">
         <v>2017</v>
@@ -20293,7 +20290,7 @@
         <v>19213</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C67" s="7">
         <v>42</v>
@@ -20313,7 +20310,7 @@
         <v>60652</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
@@ -20553,7 +20550,7 @@
         <v>19013</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C80" s="7">
         <v>28</v>
@@ -20733,7 +20730,7 @@
         <v>60651</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C89" s="7">
         <v>8</v>
@@ -20753,7 +20750,7 @@
         <v>60033</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C90" s="7">
         <v>7</v>
@@ -20773,7 +20770,7 @@
         <v>10421</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C91" s="7">
         <v>90</v>
@@ -20813,7 +20810,7 @@
         <v>80001</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C93" s="7">
         <v>240</v>
@@ -20873,7 +20870,7 @@
         <v>10079</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C96" s="7">
         <v>82</v>
@@ -21053,7 +21050,7 @@
         <v>11415</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C105" s="7">
         <v>36</v>
@@ -21113,7 +21110,7 @@
         <v>10491</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C108" s="7">
         <v>88</v>
@@ -21133,7 +21130,7 @@
         <v>10319</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C109" s="7">
         <v>5</v>
@@ -21213,7 +21210,7 @@
         <v>12121</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C113" s="7">
         <v>1522</v>
@@ -21253,7 +21250,7 @@
         <v>10760</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -21333,7 +21330,7 @@
         <v>10425</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C119" s="7">
         <v>60</v>
@@ -21353,7 +21350,7 @@
         <v>19141</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C120" s="7">
         <v>15</v>
@@ -21473,7 +21470,7 @@
         <v>10570</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C126" s="7">
         <v>1288</v>
@@ -21513,7 +21510,7 @@
         <v>10343</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C128" s="7">
         <v>16</v>
@@ -21613,7 +21610,7 @@
         <v>11413</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C133" s="7">
         <v>20</v>
@@ -21673,7 +21670,7 @@
         <v>11078</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C136" s="7">
         <v>3228</v>
@@ -21693,7 +21690,7 @@
         <v>11845</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C137" s="7">
         <v>6792</v>
@@ -21713,7 +21710,7 @@
         <v>10043</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C138" s="7">
         <v>12</v>
@@ -21733,7 +21730,7 @@
         <v>10338</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C139" s="7">
         <v>130</v>
@@ -21753,7 +21750,7 @@
         <v>10564</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140" s="7">
         <v>4996</v>
@@ -21793,7 +21790,7 @@
         <v>89012</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C142" s="7">
         <v>20</v>
@@ -21873,7 +21870,7 @@
         <v>19359</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C146" s="7">
         <v>64</v>
@@ -21913,7 +21910,7 @@
         <v>10254</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C148" s="7">
         <v>127</v>
@@ -21933,7 +21930,7 @@
         <v>10700</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C149" s="7">
         <v>36</v>
@@ -21993,7 +21990,7 @@
         <v>10490</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C152" s="7">
         <v>34</v>
@@ -22031,7 +22028,7 @@
         <v>10110</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C154" s="7">
         <v>94</v>
@@ -22049,7 +22046,7 @@
         <v>10126</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C155" s="7">
         <v>41</v>
@@ -22085,7 +22082,7 @@
         <v>10184</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C157" s="7">
         <v>8</v>
@@ -22103,7 +22100,7 @@
         <v>10186</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C158" s="7">
         <v>150</v>
@@ -22121,7 +22118,7 @@
         <v>10212</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C159" s="7">
         <v>61</v>
@@ -22137,7 +22134,7 @@
         <v>10214</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C160" s="7">
         <v>121</v>
@@ -22189,7 +22186,7 @@
         <v>10224</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C163" s="7">
         <v>24</v>
@@ -22207,7 +22204,7 @@
         <v>10225</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C164" s="7">
         <v>24</v>
@@ -22225,7 +22222,7 @@
         <v>10264</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C165" s="7">
         <v>81</v>
@@ -22243,7 +22240,7 @@
         <v>10298</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C166" s="7">
         <v>80</v>
@@ -22261,7 +22258,7 @@
         <v>10366</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C167" s="7">
         <v>8</v>
@@ -22279,7 +22276,7 @@
         <v>10394</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C168" s="7">
         <v>52</v>
@@ -22297,7 +22294,7 @@
         <v>10404</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C169" s="7">
         <v>59</v>
@@ -22315,7 +22312,7 @@
         <v>10407</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C170" s="7">
         <v>100</v>
@@ -22333,7 +22330,7 @@
         <v>10427</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C171" s="7">
         <v>100</v>
@@ -22351,7 +22348,7 @@
         <v>10475</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C172" s="7">
         <v>94</v>
@@ -22369,7 +22366,7 @@
         <v>10534</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C173" s="7">
         <v>72</v>
@@ -22387,7 +22384,7 @@
         <v>10536</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C174" s="7">
         <v>161</v>
@@ -22405,7 +22402,7 @@
         <v>10537</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C175" s="7">
         <v>130</v>
@@ -22423,7 +22420,7 @@
         <v>10538</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C176" s="7">
         <v>94</v>
@@ -22441,7 +22438,7 @@
         <v>10555</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C177" s="7">
         <v>180</v>
@@ -22459,7 +22456,7 @@
         <v>10566</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C178" s="7">
         <v>1311</v>
@@ -22477,7 +22474,7 @@
         <v>10571</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C179" s="7">
         <v>688</v>
@@ -22495,7 +22492,7 @@
         <v>10572</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="7">
         <v>1299</v>
@@ -22513,7 +22510,7 @@
         <v>10616</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C181" s="7">
         <v>64</v>
@@ -22531,7 +22528,7 @@
         <v>10626</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C182" s="7">
         <v>10</v>
@@ -22567,7 +22564,7 @@
         <v>11414</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C184" s="7">
         <v>19</v>
@@ -22585,7 +22582,7 @@
         <v>19635</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C185" s="7">
         <v>48</v>
@@ -22603,7 +22600,7 @@
         <v>60145</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C186" s="7">
         <v>15</v>
@@ -22621,7 +22618,7 @@
         <v>60173</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C187" s="7">
         <v>10</v>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -19,12 +19,12 @@
     <sheet name="2014" sheetId="5" r:id="rId5"/>
     <sheet name="2015" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="380">
   <si>
     <t>院校号</t>
   </si>
@@ -3593,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6300,7 +6300,9 @@
       <c r="E135" s="2">
         <v>621</v>
       </c>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>29550</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="15">
       <c r="A136" s="2" t="s">
@@ -6318,7 +6320,9 @@
       <c r="E136" s="2">
         <v>621</v>
       </c>
-      <c r="F136" s="2"/>
+      <c r="F136" s="2">
+        <v>29550</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="15">
       <c r="A137" s="2" t="s">
@@ -6336,7 +6340,9 @@
       <c r="E137" s="2">
         <v>621</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2">
+        <v>29550</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="15">
       <c r="A138" s="2" t="s">
@@ -6354,7 +6360,9 @@
       <c r="E138" s="2">
         <v>621</v>
       </c>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2">
+        <v>29550</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="15">
       <c r="A139" s="2" t="s">
@@ -6372,7 +6380,9 @@
       <c r="E139" s="2">
         <v>621</v>
       </c>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>29550</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6384,8 +6394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8451,7 +8461,9 @@
       <c r="E103" s="4">
         <v>568</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="15">
       <c r="A104" s="4">
@@ -8469,7 +8481,9 @@
       <c r="E104" s="4">
         <v>568</v>
       </c>
-      <c r="F104" s="4"/>
+      <c r="F104" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="15">
       <c r="A105" s="4">
@@ -8487,7 +8501,9 @@
       <c r="E105" s="4">
         <v>568</v>
       </c>
-      <c r="F105" s="4"/>
+      <c r="F105" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="15">
       <c r="A106" s="4">
@@ -8505,7 +8521,9 @@
       <c r="E106" s="4">
         <v>568</v>
       </c>
-      <c r="F106" s="4"/>
+      <c r="F106" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="15">
       <c r="A107" s="4">
@@ -8523,7 +8541,9 @@
       <c r="E107" s="4">
         <v>568</v>
       </c>
-      <c r="F107" s="4"/>
+      <c r="F107" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="15">
       <c r="A108" s="4">
@@ -8539,7 +8559,9 @@
         <v>0</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="F108" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="15">
       <c r="A109" s="4">
@@ -8557,7 +8579,9 @@
       <c r="E109" s="4">
         <v>568</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="15">
       <c r="A110" s="4">
@@ -8575,7 +8599,9 @@
       <c r="E110" s="4">
         <v>568</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="15">
       <c r="A111" s="4">
@@ -8591,7 +8617,9 @@
         <v>0</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="F111" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="15">
       <c r="A112" s="4">
@@ -8609,7 +8637,9 @@
       <c r="E112" s="4">
         <v>568</v>
       </c>
-      <c r="F112" s="4"/>
+      <c r="F112" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="113" spans="1:6" ht="15">
       <c r="A113" s="4">
@@ -8627,7 +8657,9 @@
       <c r="E113" s="4">
         <v>568</v>
       </c>
-      <c r="F113" s="4"/>
+      <c r="F113" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="15">
       <c r="A114" s="4">
@@ -8643,7 +8675,9 @@
         <v>0</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="F114" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="115" spans="1:6" ht="15">
       <c r="A115" s="4">
@@ -8661,7 +8695,9 @@
       <c r="E115" s="4">
         <v>568</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="15">
       <c r="A116" s="4">
@@ -8679,7 +8715,9 @@
       <c r="E116" s="4">
         <v>568</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="15">
       <c r="A117" s="4">
@@ -8697,7 +8735,9 @@
       <c r="E117" s="4">
         <v>568</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="15">
       <c r="A118" s="4">
@@ -8715,7 +8755,9 @@
       <c r="E118" s="4">
         <v>568</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="15">
       <c r="A119" s="4">
@@ -8733,7 +8775,9 @@
       <c r="E119" s="4">
         <v>568</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="15">
       <c r="A120" s="4">
@@ -8751,7 +8795,9 @@
       <c r="E120" s="4">
         <v>568</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="15">
       <c r="A121" s="4">
@@ -8769,7 +8815,9 @@
       <c r="E121" s="4">
         <v>568</v>
       </c>
-      <c r="F121" s="4"/>
+      <c r="F121" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="15">
       <c r="A122" s="4">
@@ -8787,7 +8835,9 @@
       <c r="E122" s="4">
         <v>568</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="15">
       <c r="A123" s="4">
@@ -8805,7 +8855,9 @@
       <c r="E123" s="4">
         <v>568</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="15">
       <c r="A124" s="4">
@@ -8823,7 +8875,9 @@
       <c r="E124" s="4">
         <v>568</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="15">
       <c r="A125" s="4">
@@ -8841,7 +8895,9 @@
       <c r="E125" s="4">
         <v>568</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F125" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="15">
       <c r="A126" s="4">
@@ -8859,7 +8915,9 @@
       <c r="E126" s="4">
         <v>568</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="15">
       <c r="A127" s="4">
@@ -8877,7 +8935,9 @@
       <c r="E127" s="4">
         <v>568</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="15">
       <c r="A128" s="4">
@@ -8895,7 +8955,9 @@
       <c r="E128" s="4">
         <v>568</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="15">
       <c r="A129" s="4">
@@ -8913,7 +8975,9 @@
       <c r="E129" s="4">
         <v>568</v>
       </c>
-      <c r="F129" s="4"/>
+      <c r="F129" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15">
       <c r="A130" s="4">
@@ -8931,7 +8995,9 @@
       <c r="E130" s="4">
         <v>568</v>
       </c>
-      <c r="F130" s="4"/>
+      <c r="F130" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15">
       <c r="A131" s="4">
@@ -8949,7 +9015,9 @@
       <c r="E131" s="4">
         <v>568</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="15">
       <c r="A132" s="4">
@@ -8967,7 +9035,9 @@
       <c r="E132" s="4">
         <v>568</v>
       </c>
-      <c r="F132" s="4"/>
+      <c r="F132" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15">
       <c r="A133" s="4">
@@ -8985,7 +9055,9 @@
       <c r="E133" s="4">
         <v>568</v>
       </c>
-      <c r="F133" s="4"/>
+      <c r="F133" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="15">
       <c r="A134" s="4">
@@ -9003,7 +9075,9 @@
       <c r="E134" s="4">
         <v>568</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="15">
       <c r="A135" s="4">
@@ -9021,7 +9095,9 @@
       <c r="E135" s="4">
         <v>568</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="15">
       <c r="A136" s="4">
@@ -9037,7 +9113,9 @@
         <v>0</v>
       </c>
       <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="F136" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="15">
       <c r="A137" s="4">
@@ -9055,7 +9133,9 @@
       <c r="E137" s="4">
         <v>568</v>
       </c>
-      <c r="F137" s="4"/>
+      <c r="F137" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="15">
       <c r="A138" s="4">
@@ -9073,7 +9153,9 @@
       <c r="E138" s="4">
         <v>568</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="15">
       <c r="A139" s="4">
@@ -9091,7 +9173,9 @@
       <c r="E139" s="4">
         <v>568</v>
       </c>
-      <c r="F139" s="4"/>
+      <c r="F139" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15">
       <c r="A140" s="4">
@@ -9109,7 +9193,9 @@
       <c r="E140" s="4">
         <v>568</v>
       </c>
-      <c r="F140" s="4"/>
+      <c r="F140" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="15">
       <c r="A141" s="4">
@@ -9127,7 +9213,9 @@
       <c r="E141" s="4">
         <v>568</v>
       </c>
-      <c r="F141" s="4"/>
+      <c r="F141" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="15">
       <c r="A142" s="4">
@@ -9145,7 +9233,9 @@
       <c r="E142" s="4">
         <v>568</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="4">
+        <v>30392</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="15">
       <c r="A143" s="4">
@@ -9163,7 +9253,9 @@
       <c r="E143" s="4">
         <v>568</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4">
+        <v>30392</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9175,8 +9267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11340,7 +11432,9 @@
       <c r="E108" s="5">
         <v>585</v>
       </c>
-      <c r="F108" s="5"/>
+      <c r="F108" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="30">
       <c r="A109" s="5">
@@ -11358,7 +11452,9 @@
       <c r="E109" s="5">
         <v>585</v>
       </c>
-      <c r="F109" s="5"/>
+      <c r="F109" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="30">
       <c r="A110" s="5">
@@ -11376,7 +11472,9 @@
       <c r="E110" s="5">
         <v>585</v>
       </c>
-      <c r="F110" s="5"/>
+      <c r="F110" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="30">
       <c r="A111" s="5">
@@ -11392,7 +11490,9 @@
         <v>0</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="F111" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="45">
       <c r="A112" s="5">
@@ -11408,7 +11508,9 @@
         <v>0</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="113" spans="1:6" ht="30">
       <c r="A113" s="5">
@@ -11426,7 +11528,9 @@
       <c r="E113" s="5">
         <v>585</v>
       </c>
-      <c r="F113" s="5"/>
+      <c r="F113" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="30">
       <c r="A114" s="5">
@@ -11442,7 +11546,9 @@
         <v>0</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
+      <c r="F114" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="115" spans="1:6" ht="30">
       <c r="A115" s="5">
@@ -11460,7 +11566,9 @@
       <c r="E115" s="5">
         <v>585</v>
       </c>
-      <c r="F115" s="5"/>
+      <c r="F115" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="45">
       <c r="A116" s="5">
@@ -11478,7 +11586,9 @@
       <c r="E116" s="5">
         <v>585</v>
       </c>
-      <c r="F116" s="5"/>
+      <c r="F116" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="5">
@@ -11494,7 +11604,9 @@
         <v>0</v>
       </c>
       <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="30">
       <c r="A118" s="5">
@@ -11510,7 +11622,9 @@
         <v>0</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="45">
       <c r="A119" s="5">
@@ -11528,7 +11642,9 @@
       <c r="E119" s="5">
         <v>585</v>
       </c>
-      <c r="F119" s="5"/>
+      <c r="F119" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="30">
       <c r="A120" s="5">
@@ -11546,7 +11662,9 @@
       <c r="E120" s="5">
         <v>585</v>
       </c>
-      <c r="F120" s="5"/>
+      <c r="F120" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="30">
       <c r="A121" s="5">
@@ -11564,7 +11682,9 @@
       <c r="E121" s="5">
         <v>585</v>
       </c>
-      <c r="F121" s="5"/>
+      <c r="F121" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="30">
       <c r="A122" s="5">
@@ -11582,7 +11702,9 @@
       <c r="E122" s="5">
         <v>585</v>
       </c>
-      <c r="F122" s="5"/>
+      <c r="F122" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="30">
       <c r="A123" s="5">
@@ -11600,7 +11722,9 @@
       <c r="E123" s="5">
         <v>585</v>
       </c>
-      <c r="F123" s="5"/>
+      <c r="F123" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="30">
       <c r="A124" s="5">
@@ -11618,7 +11742,9 @@
       <c r="E124" s="5">
         <v>585</v>
       </c>
-      <c r="F124" s="5"/>
+      <c r="F124" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="30">
       <c r="A125" s="5">
@@ -11636,7 +11762,9 @@
       <c r="E125" s="5">
         <v>585</v>
       </c>
-      <c r="F125" s="5"/>
+      <c r="F125" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="30">
       <c r="A126" s="5">
@@ -11654,7 +11782,9 @@
       <c r="E126" s="5">
         <v>585</v>
       </c>
-      <c r="F126" s="5"/>
+      <c r="F126" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="30">
       <c r="A127" s="5">
@@ -11672,7 +11802,9 @@
       <c r="E127" s="5">
         <v>585</v>
       </c>
-      <c r="F127" s="5"/>
+      <c r="F127" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="30">
       <c r="A128" s="5">
@@ -11690,7 +11822,9 @@
       <c r="E128" s="5">
         <v>585</v>
       </c>
-      <c r="F128" s="5"/>
+      <c r="F128" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="45">
       <c r="A129" s="5">
@@ -11708,7 +11842,9 @@
       <c r="E129" s="5">
         <v>585</v>
       </c>
-      <c r="F129" s="5"/>
+      <c r="F129" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="30">
       <c r="A130" s="5">
@@ -11726,7 +11862,9 @@
       <c r="E130" s="5">
         <v>585</v>
       </c>
-      <c r="F130" s="5"/>
+      <c r="F130" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="30">
       <c r="A131" s="5">
@@ -11744,7 +11882,9 @@
       <c r="E131" s="5">
         <v>585</v>
       </c>
-      <c r="F131" s="5"/>
+      <c r="F131" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="45">
       <c r="A132" s="5">
@@ -11762,7 +11902,9 @@
       <c r="E132" s="5">
         <v>585</v>
       </c>
-      <c r="F132" s="5"/>
+      <c r="F132" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="30">
       <c r="A133" s="5">
@@ -11780,7 +11922,9 @@
       <c r="E133" s="5">
         <v>585</v>
       </c>
-      <c r="F133" s="5"/>
+      <c r="F133" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="30">
       <c r="A134" s="5">
@@ -11798,7 +11942,9 @@
       <c r="E134" s="5">
         <v>585</v>
       </c>
-      <c r="F134" s="5"/>
+      <c r="F134" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="30">
       <c r="A135" s="5">
@@ -11816,7 +11962,9 @@
       <c r="E135" s="5">
         <v>585</v>
       </c>
-      <c r="F135" s="5"/>
+      <c r="F135" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="30">
       <c r="A136" s="5">
@@ -11834,7 +11982,9 @@
       <c r="E136" s="5">
         <v>585</v>
       </c>
-      <c r="F136" s="5"/>
+      <c r="F136" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="30">
       <c r="A137" s="5">
@@ -11852,7 +12002,9 @@
       <c r="E137" s="5">
         <v>585</v>
       </c>
-      <c r="F137" s="5"/>
+      <c r="F137" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="30">
       <c r="A138" s="5">
@@ -11870,7 +12022,9 @@
       <c r="E138" s="5">
         <v>585</v>
       </c>
-      <c r="F138" s="5"/>
+      <c r="F138" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="30">
       <c r="A139" s="5">
@@ -11886,7 +12040,9 @@
         <v>0</v>
       </c>
       <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
+      <c r="F139" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="45">
       <c r="A140" s="5">
@@ -11904,7 +12060,9 @@
       <c r="E140" s="5">
         <v>585</v>
       </c>
-      <c r="F140" s="5"/>
+      <c r="F140" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="30">
       <c r="A141" s="5">
@@ -11922,7 +12080,9 @@
       <c r="E141" s="5">
         <v>585</v>
       </c>
-      <c r="F141" s="5"/>
+      <c r="F141" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="30">
       <c r="A142" s="5">
@@ -11938,7 +12098,9 @@
         <v>0</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+      <c r="F142" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="45">
       <c r="A143" s="5">
@@ -11956,7 +12118,9 @@
       <c r="E143" s="5">
         <v>585</v>
       </c>
-      <c r="F143" s="5"/>
+      <c r="F143" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="30">
       <c r="A144" s="5">
@@ -11974,7 +12138,9 @@
       <c r="E144" s="5">
         <v>585</v>
       </c>
-      <c r="F144" s="5"/>
+      <c r="F144" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="45">
       <c r="A145" s="5">
@@ -11992,7 +12158,9 @@
       <c r="E145" s="5">
         <v>585</v>
       </c>
-      <c r="F145" s="5"/>
+      <c r="F145" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="60">
       <c r="A146" s="5">
@@ -12010,752 +12178,336 @@
       <c r="E146" s="5">
         <v>585</v>
       </c>
-      <c r="F146" s="5"/>
+      <c r="F146" s="5">
+        <v>29207</v>
+      </c>
     </row>
     <row r="147" spans="1:6" ht="16.5">
-      <c r="A147" s="7">
-        <v>10140</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C147" s="7">
-        <v>14</v>
-      </c>
-      <c r="D147" s="7">
-        <v>14</v>
-      </c>
-      <c r="E147" s="7">
-        <v>578</v>
-      </c>
-      <c r="F147" s="7">
-        <v>49276</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="28.5">
-      <c r="A148" s="7">
-        <v>10254</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C148" s="7">
-        <v>127</v>
-      </c>
-      <c r="D148" s="7">
-        <v>127</v>
-      </c>
-      <c r="E148" s="7">
-        <v>577</v>
-      </c>
-      <c r="F148" s="7">
-        <v>50373</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="28.5">
-      <c r="A149" s="7">
-        <v>10700</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C149" s="7">
-        <v>36</v>
-      </c>
-      <c r="D149" s="7">
-        <v>43</v>
-      </c>
-      <c r="E149" s="7">
-        <v>577</v>
-      </c>
-      <c r="F149" s="7">
-        <v>50470</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="42.75">
-      <c r="A150" s="7">
-        <v>19145</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C150" s="7">
-        <v>67</v>
-      </c>
-      <c r="D150" s="7">
-        <v>67</v>
-      </c>
-      <c r="E150" s="7">
-        <v>577</v>
-      </c>
-      <c r="F150" s="7">
-        <v>50561</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="28.5">
-      <c r="A151" s="7">
-        <v>10226</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C151" s="7">
-        <v>27</v>
-      </c>
-      <c r="D151" s="7">
-        <v>28</v>
-      </c>
-      <c r="E151" s="7">
-        <v>577</v>
-      </c>
-      <c r="F151" s="7">
-        <v>50691</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="28.5">
-      <c r="A152" s="7">
-        <v>10490</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C152" s="7">
-        <v>34</v>
-      </c>
-      <c r="D152" s="7">
-        <v>34</v>
-      </c>
-      <c r="E152" s="7">
-        <v>577</v>
-      </c>
-      <c r="F152" s="7">
-        <v>50820</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="28.5">
-      <c r="A153" s="7">
-        <v>10107</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C153" s="7">
-        <v>13</v>
-      </c>
-      <c r="D153" s="7">
-        <v>1</v>
-      </c>
-      <c r="E153" s="7">
-        <v>577</v>
-      </c>
+      <c r="A147" s="7"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" ht="16.5">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" ht="16.5">
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" spans="1:6" ht="16.5">
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" ht="16.5">
+      <c r="A151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" ht="16.5">
+      <c r="A152" s="7"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="1:6" ht="16.5">
+      <c r="A153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
       <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6" ht="16.5">
-      <c r="A154" s="7">
-        <v>10110</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C154" s="7">
-        <v>94</v>
-      </c>
-      <c r="D154" s="7">
-        <v>4</v>
-      </c>
-      <c r="E154" s="7">
-        <v>577</v>
-      </c>
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" ht="28.5">
-      <c r="A155" s="7">
-        <v>10126</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C155" s="7">
-        <v>41</v>
-      </c>
-      <c r="D155" s="7">
-        <v>3</v>
-      </c>
-      <c r="E155" s="7">
-        <v>577</v>
-      </c>
+    <row r="155" spans="1:6" ht="16.5">
+      <c r="A155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" ht="28.5">
-      <c r="A156" s="7">
-        <v>10147</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C156" s="7">
-        <v>18</v>
-      </c>
-      <c r="D156" s="7">
-        <v>1</v>
-      </c>
-      <c r="E156" s="7">
-        <v>577</v>
-      </c>
+    <row r="156" spans="1:6" ht="16.5">
+      <c r="A156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
       <c r="F156" s="7"/>
     </row>
     <row r="157" spans="1:6" ht="16.5">
-      <c r="A157" s="7">
-        <v>10184</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C157" s="7">
-        <v>8</v>
-      </c>
-      <c r="D157" s="7">
-        <v>3</v>
-      </c>
-      <c r="E157" s="7">
-        <v>577</v>
-      </c>
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" ht="28.5">
-      <c r="A158" s="7">
-        <v>10186</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C158" s="7">
-        <v>150</v>
-      </c>
-      <c r="D158" s="7">
-        <v>4</v>
-      </c>
-      <c r="E158" s="7">
-        <v>577</v>
-      </c>
+    <row r="158" spans="1:6" ht="16.5">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="28.5">
-      <c r="A159" s="7">
-        <v>10212</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C159" s="7">
-        <v>61</v>
-      </c>
-      <c r="D159" s="7">
-        <v>0</v>
-      </c>
+    <row r="159" spans="1:6" ht="16.5">
+      <c r="A159" s="7"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" ht="28.5">
-      <c r="A160" s="7">
-        <v>10214</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C160" s="7">
-        <v>121</v>
-      </c>
-      <c r="D160" s="7">
-        <v>7</v>
-      </c>
-      <c r="E160" s="7">
-        <v>577</v>
-      </c>
+    <row r="160" spans="1:6" ht="16.5">
+      <c r="A160" s="7"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
       <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6" ht="16.5">
-      <c r="A161" s="7">
-        <v>10216</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C161" s="7">
-        <v>54</v>
-      </c>
-      <c r="D161" s="7">
-        <v>51</v>
-      </c>
-      <c r="E161" s="7">
-        <v>577</v>
-      </c>
+      <c r="A161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" ht="28.5">
-      <c r="A162" s="7">
-        <v>10220</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C162" s="7">
-        <v>46</v>
-      </c>
-      <c r="D162" s="7">
-        <v>0</v>
-      </c>
+    <row r="162" spans="1:6" ht="16.5">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" ht="28.5">
-      <c r="A163" s="7">
-        <v>10224</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C163" s="7">
-        <v>24</v>
-      </c>
-      <c r="D163" s="7">
-        <v>4</v>
-      </c>
-      <c r="E163" s="7">
-        <v>577</v>
-      </c>
+    <row r="163" spans="1:6" ht="16.5">
+      <c r="A163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" ht="28.5">
-      <c r="A164" s="7">
-        <v>10225</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C164" s="7">
-        <v>24</v>
-      </c>
-      <c r="D164" s="7">
-        <v>3</v>
-      </c>
-      <c r="E164" s="7">
-        <v>577</v>
-      </c>
+    <row r="164" spans="1:6" ht="16.5">
+      <c r="A164" s="7"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" ht="28.5">
-      <c r="A165" s="7">
-        <v>10264</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C165" s="7">
-        <v>81</v>
-      </c>
-      <c r="D165" s="7">
-        <v>59</v>
-      </c>
-      <c r="E165" s="7">
-        <v>577</v>
-      </c>
+    <row r="165" spans="1:6" ht="16.5">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" ht="28.5">
-      <c r="A166" s="7">
-        <v>10298</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C166" s="7">
-        <v>80</v>
-      </c>
-      <c r="D166" s="7">
-        <v>13</v>
-      </c>
-      <c r="E166" s="7">
-        <v>577</v>
-      </c>
+    <row r="166" spans="1:6" ht="16.5">
+      <c r="A166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" ht="28.5">
-      <c r="A167" s="7">
-        <v>10366</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C167" s="7">
-        <v>8</v>
-      </c>
-      <c r="D167" s="7">
-        <v>7</v>
-      </c>
-      <c r="E167" s="7">
-        <v>577</v>
-      </c>
+    <row r="167" spans="1:6" ht="16.5">
+      <c r="A167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" ht="28.5">
-      <c r="A168" s="7">
-        <v>10394</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C168" s="7">
-        <v>52</v>
-      </c>
-      <c r="D168" s="7">
-        <v>12</v>
-      </c>
-      <c r="E168" s="7">
-        <v>577</v>
-      </c>
+    <row r="168" spans="1:6" ht="16.5">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" ht="28.5">
-      <c r="A169" s="7">
-        <v>10404</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C169" s="7">
-        <v>59</v>
-      </c>
-      <c r="D169" s="7">
-        <v>17</v>
-      </c>
-      <c r="E169" s="7">
-        <v>577</v>
-      </c>
+    <row r="169" spans="1:6" ht="16.5">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" ht="28.5">
-      <c r="A170" s="7">
-        <v>10407</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C170" s="7">
-        <v>100</v>
-      </c>
-      <c r="D170" s="7">
-        <v>2</v>
-      </c>
-      <c r="E170" s="7">
-        <v>577</v>
-      </c>
+    <row r="170" spans="1:6" ht="16.5">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
       <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" ht="16.5">
-      <c r="A171" s="7">
-        <v>10427</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C171" s="7">
-        <v>100</v>
-      </c>
-      <c r="D171" s="7">
-        <v>5</v>
-      </c>
-      <c r="E171" s="7">
-        <v>577</v>
-      </c>
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
       <c r="F171" s="7"/>
     </row>
     <row r="172" spans="1:6" ht="16.5">
-      <c r="A172" s="7">
-        <v>10475</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C172" s="7">
-        <v>94</v>
-      </c>
-      <c r="D172" s="7">
-        <v>1</v>
-      </c>
-      <c r="E172" s="7">
-        <v>577</v>
-      </c>
+      <c r="A172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" ht="28.5">
-      <c r="A173" s="7">
-        <v>10534</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C173" s="7">
-        <v>72</v>
-      </c>
-      <c r="D173" s="7">
-        <v>7</v>
-      </c>
-      <c r="E173" s="7">
-        <v>577</v>
-      </c>
+    <row r="173" spans="1:6" ht="16.5">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" ht="28.5">
-      <c r="A174" s="7">
-        <v>10536</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C174" s="7">
-        <v>161</v>
-      </c>
-      <c r="D174" s="7">
-        <v>83</v>
-      </c>
-      <c r="E174" s="7">
-        <v>577</v>
-      </c>
+    <row r="174" spans="1:6" ht="16.5">
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="28.5">
-      <c r="A175" s="7">
-        <v>10537</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C175" s="7">
-        <v>130</v>
-      </c>
-      <c r="D175" s="7">
-        <v>4</v>
-      </c>
-      <c r="E175" s="7">
-        <v>577</v>
-      </c>
+    <row r="175" spans="1:6" ht="16.5">
+      <c r="A175" s="7"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" ht="28.5">
-      <c r="A176" s="7">
-        <v>10538</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C176" s="7">
-        <v>94</v>
-      </c>
-      <c r="D176" s="7">
-        <v>1</v>
-      </c>
-      <c r="E176" s="7">
-        <v>577</v>
-      </c>
+    <row r="176" spans="1:6" ht="16.5">
+      <c r="A176" s="7"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
       <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:6" ht="16.5">
-      <c r="A177" s="7">
-        <v>10555</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C177" s="7">
-        <v>180</v>
-      </c>
-      <c r="D177" s="7">
-        <v>28</v>
-      </c>
-      <c r="E177" s="7">
-        <v>577</v>
-      </c>
+      <c r="A177" s="7"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" ht="28.5">
-      <c r="A178" s="7">
-        <v>10566</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C178" s="7">
-        <v>1311</v>
-      </c>
-      <c r="D178" s="7">
-        <v>150</v>
-      </c>
-      <c r="E178" s="7">
-        <v>577</v>
-      </c>
+    <row r="178" spans="1:6" ht="16.5">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" ht="28.5">
-      <c r="A179" s="7">
-        <v>10571</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C179" s="7">
-        <v>688</v>
-      </c>
-      <c r="D179" s="7">
-        <v>601</v>
-      </c>
-      <c r="E179" s="7">
-        <v>577</v>
-      </c>
+    <row r="179" spans="1:6" ht="16.5">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" ht="28.5">
-      <c r="A180" s="7">
-        <v>10572</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C180" s="7">
-        <v>1299</v>
-      </c>
-      <c r="D180" s="7">
-        <v>1284</v>
-      </c>
-      <c r="E180" s="7">
-        <v>577</v>
-      </c>
+    <row r="180" spans="1:6" ht="16.5">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" ht="28.5">
-      <c r="A181" s="7">
-        <v>10616</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C181" s="7">
-        <v>64</v>
-      </c>
-      <c r="D181" s="7">
-        <v>12</v>
-      </c>
-      <c r="E181" s="7">
-        <v>577</v>
-      </c>
+    <row r="181" spans="1:6" ht="16.5">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" ht="28.5">
-      <c r="A182" s="7">
-        <v>10626</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C182" s="7">
-        <v>10</v>
-      </c>
-      <c r="D182" s="7">
-        <v>5</v>
-      </c>
-      <c r="E182" s="7">
-        <v>577</v>
-      </c>
+    <row r="182" spans="1:6" ht="16.5">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" ht="28.5">
-      <c r="A183" s="7">
-        <v>10708</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C183" s="7">
-        <v>15</v>
-      </c>
-      <c r="D183" s="7">
-        <v>2</v>
-      </c>
-      <c r="E183" s="7">
-        <v>577</v>
-      </c>
+    <row r="183" spans="1:6" ht="16.5">
+      <c r="A183" s="7"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" ht="47.25">
-      <c r="A184" s="7">
-        <v>11414</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C184" s="7">
-        <v>19</v>
-      </c>
-      <c r="D184" s="7">
-        <v>16</v>
-      </c>
-      <c r="E184" s="7">
-        <v>577</v>
-      </c>
+    <row r="184" spans="1:6" ht="16.5">
+      <c r="A184" s="7"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" ht="47.25">
-      <c r="A185" s="7">
-        <v>19635</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C185" s="7">
-        <v>48</v>
-      </c>
-      <c r="D185" s="7">
-        <v>1</v>
-      </c>
-      <c r="E185" s="7">
-        <v>577</v>
-      </c>
+    <row r="185" spans="1:6" ht="16.5">
+      <c r="A185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" ht="61.5">
-      <c r="A186" s="7">
-        <v>60145</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C186" s="7">
-        <v>15</v>
-      </c>
-      <c r="D186" s="7">
-        <v>11</v>
-      </c>
-      <c r="E186" s="7">
-        <v>577</v>
-      </c>
+    <row r="186" spans="1:6" ht="16.5">
+      <c r="A186" s="7"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" ht="61.5">
-      <c r="A187" s="7">
-        <v>60173</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C187" s="7">
-        <v>10</v>
-      </c>
-      <c r="D187" s="7">
-        <v>2</v>
-      </c>
-      <c r="E187" s="7">
-        <v>577</v>
-      </c>
+    <row r="187" spans="1:6" ht="16.5">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
   </sheetData>
@@ -12766,10 +12518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15073,7 +14825,9 @@
       <c r="E115" s="12">
         <v>574</v>
       </c>
-      <c r="F115" s="13"/>
+      <c r="F115" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="45">
       <c r="A116" s="11">
@@ -15091,7 +14845,9 @@
       <c r="E116" s="12">
         <v>574</v>
       </c>
-      <c r="F116" s="13"/>
+      <c r="F116" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="11">
@@ -15109,7 +14865,9 @@
       <c r="E117" s="12">
         <v>574</v>
       </c>
-      <c r="F117" s="13"/>
+      <c r="F117" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="45">
       <c r="A118" s="11">
@@ -15127,7 +14885,9 @@
       <c r="E118" s="12">
         <v>574</v>
       </c>
-      <c r="F118" s="13"/>
+      <c r="F118" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="30">
       <c r="A119" s="11">
@@ -15145,7 +14905,9 @@
       <c r="E119" s="12">
         <v>574</v>
       </c>
-      <c r="F119" s="13"/>
+      <c r="F119" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="30">
       <c r="A120" s="11">
@@ -15161,7 +14923,9 @@
         <v>0</v>
       </c>
       <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="F120" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="30">
       <c r="A121" s="11">
@@ -15179,7 +14943,9 @@
       <c r="E121" s="12">
         <v>574</v>
       </c>
-      <c r="F121" s="13"/>
+      <c r="F121" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="45">
       <c r="A122" s="11">
@@ -15195,7 +14961,9 @@
         <v>0</v>
       </c>
       <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
+      <c r="F122" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="30">
       <c r="A123" s="11">
@@ -15213,7 +14981,9 @@
       <c r="E123" s="12">
         <v>574</v>
       </c>
-      <c r="F123" s="13"/>
+      <c r="F123" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="30">
       <c r="A124" s="11">
@@ -15231,7 +15001,9 @@
       <c r="E124" s="12">
         <v>574</v>
       </c>
-      <c r="F124" s="13"/>
+      <c r="F124" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="30">
       <c r="A125" s="11">
@@ -15249,7 +15021,9 @@
       <c r="E125" s="12">
         <v>574</v>
       </c>
-      <c r="F125" s="13"/>
+      <c r="F125" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="30">
       <c r="A126" s="11">
@@ -15267,7 +15041,9 @@
       <c r="E126" s="12">
         <v>574</v>
       </c>
-      <c r="F126" s="13"/>
+      <c r="F126" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="30">
       <c r="A127" s="11">
@@ -15285,7 +15061,9 @@
       <c r="E127" s="12">
         <v>574</v>
       </c>
-      <c r="F127" s="13"/>
+      <c r="F127" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="30">
       <c r="A128" s="11">
@@ -15301,7 +15079,9 @@
         <v>0</v>
       </c>
       <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="F128" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="30">
       <c r="A129" s="11">
@@ -15319,7 +15099,9 @@
       <c r="E129" s="12">
         <v>574</v>
       </c>
-      <c r="F129" s="13"/>
+      <c r="F129" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="30">
       <c r="A130" s="11">
@@ -15337,7 +15119,9 @@
       <c r="E130" s="12">
         <v>574</v>
       </c>
-      <c r="F130" s="13"/>
+      <c r="F130" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="30">
       <c r="A131" s="11">
@@ -15355,7 +15139,9 @@
       <c r="E131" s="12">
         <v>574</v>
       </c>
-      <c r="F131" s="13"/>
+      <c r="F131" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="30">
       <c r="A132" s="11">
@@ -15373,7 +15159,9 @@
       <c r="E132" s="12">
         <v>574</v>
       </c>
-      <c r="F132" s="13"/>
+      <c r="F132" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="30">
       <c r="A133" s="11">
@@ -15391,7 +15179,9 @@
       <c r="E133" s="12">
         <v>574</v>
       </c>
-      <c r="F133" s="13"/>
+      <c r="F133" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="45">
       <c r="A134" s="11">
@@ -15409,7 +15199,9 @@
       <c r="E134" s="12">
         <v>574</v>
       </c>
-      <c r="F134" s="13"/>
+      <c r="F134" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="45">
       <c r="A135" s="11">
@@ -15427,7 +15219,9 @@
       <c r="E135" s="12">
         <v>574</v>
       </c>
-      <c r="F135" s="13"/>
+      <c r="F135" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="30">
       <c r="A136" s="11">
@@ -15445,7 +15239,9 @@
       <c r="E136" s="12">
         <v>574</v>
       </c>
-      <c r="F136" s="13"/>
+      <c r="F136" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="30">
       <c r="A137" s="11">
@@ -15463,7 +15259,9 @@
       <c r="E137" s="12">
         <v>574</v>
       </c>
-      <c r="F137" s="13"/>
+      <c r="F137" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="30">
       <c r="A138" s="11">
@@ -15481,7 +15279,9 @@
       <c r="E138" s="12">
         <v>574</v>
       </c>
-      <c r="F138" s="13"/>
+      <c r="F138" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="45">
       <c r="A139" s="11">
@@ -15499,7 +15299,9 @@
       <c r="E139" s="12">
         <v>574</v>
       </c>
-      <c r="F139" s="13"/>
+      <c r="F139" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="30">
       <c r="A140" s="11">
@@ -15517,7 +15319,9 @@
       <c r="E140" s="12">
         <v>574</v>
       </c>
-      <c r="F140" s="13"/>
+      <c r="F140" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="30">
       <c r="A141" s="11">
@@ -15535,7 +15339,9 @@
       <c r="E141" s="12">
         <v>574</v>
       </c>
-      <c r="F141" s="13"/>
+      <c r="F141" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="30">
       <c r="A142" s="11">
@@ -15551,7 +15357,9 @@
         <v>0</v>
       </c>
       <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
+      <c r="F142" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="30">
       <c r="A143" s="11">
@@ -15569,7 +15377,9 @@
       <c r="E143" s="12">
         <v>574</v>
       </c>
-      <c r="F143" s="13"/>
+      <c r="F143" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="30">
       <c r="A144" s="11">
@@ -15587,7 +15397,9 @@
       <c r="E144" s="12">
         <v>574</v>
       </c>
-      <c r="F144" s="13"/>
+      <c r="F144" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="30">
       <c r="A145" s="11">
@@ -15603,7 +15415,9 @@
         <v>0</v>
       </c>
       <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
+      <c r="F145" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="45">
       <c r="A146" s="11">
@@ -15621,7 +15435,9 @@
       <c r="E146" s="12">
         <v>574</v>
       </c>
-      <c r="F146" s="13"/>
+      <c r="F146" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="147" spans="1:6" ht="30">
       <c r="A147" s="11">
@@ -15639,7 +15455,9 @@
       <c r="E147" s="12">
         <v>574</v>
       </c>
-      <c r="F147" s="13"/>
+      <c r="F147" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="148" spans="1:6" ht="30">
       <c r="A148" s="11">
@@ -15655,7 +15473,9 @@
         <v>0</v>
       </c>
       <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
+      <c r="F148" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="149" spans="1:6" ht="30">
       <c r="A149" s="11">
@@ -15673,7 +15493,9 @@
       <c r="E149" s="12">
         <v>574</v>
       </c>
-      <c r="F149" s="13"/>
+      <c r="F149" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="30">
       <c r="A150" s="11">
@@ -15691,7 +15513,9 @@
       <c r="E150" s="12">
         <v>574</v>
       </c>
-      <c r="F150" s="13"/>
+      <c r="F150" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="151" spans="1:6" ht="60">
       <c r="A151" s="11">
@@ -15709,7 +15533,9 @@
       <c r="E151" s="12">
         <v>574</v>
       </c>
-      <c r="F151" s="13"/>
+      <c r="F151" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="152" spans="1:6" ht="45">
       <c r="A152" s="11">
@@ -15727,7 +15553,9 @@
       <c r="E152" s="12">
         <v>574</v>
       </c>
-      <c r="F152" s="13"/>
+      <c r="F152" s="13">
+        <v>40420</v>
+      </c>
     </row>
     <row r="153" spans="1:6" ht="60">
       <c r="A153" s="11">
@@ -15745,7 +15573,12 @@
       <c r="E153" s="12">
         <v>574</v>
       </c>
-      <c r="F153" s="13"/>
+      <c r="F153" s="13">
+        <v>40420</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="F154" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15757,8 +15590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163:F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18242,7 +18075,9 @@
       <c r="E124" s="15">
         <v>560</v>
       </c>
-      <c r="F124" s="15"/>
+      <c r="F124" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="15">
       <c r="A125" s="15">
@@ -18260,7 +18095,9 @@
       <c r="E125" s="15">
         <v>560</v>
       </c>
-      <c r="F125" s="15"/>
+      <c r="F125" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="15">
       <c r="A126" s="15">
@@ -18278,7 +18115,9 @@
       <c r="E126" s="15">
         <v>560</v>
       </c>
-      <c r="F126" s="15"/>
+      <c r="F126" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="15">
       <c r="A127" s="15">
@@ -18296,7 +18135,9 @@
       <c r="E127" s="15">
         <v>560</v>
       </c>
-      <c r="F127" s="15"/>
+      <c r="F127" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="15">
       <c r="A128" s="15">
@@ -18314,7 +18155,9 @@
       <c r="E128" s="15">
         <v>560</v>
       </c>
-      <c r="F128" s="15"/>
+      <c r="F128" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="15">
       <c r="A129" s="15">
@@ -18332,7 +18175,9 @@
       <c r="E129" s="15">
         <v>560</v>
       </c>
-      <c r="F129" s="15"/>
+      <c r="F129" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15">
       <c r="A130" s="15">
@@ -18350,7 +18195,9 @@
       <c r="E130" s="15">
         <v>560</v>
       </c>
-      <c r="F130" s="15"/>
+      <c r="F130" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15">
       <c r="A131" s="15">
@@ -18368,7 +18215,9 @@
       <c r="E131" s="15">
         <v>560</v>
       </c>
-      <c r="F131" s="15"/>
+      <c r="F131" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="15">
       <c r="A132" s="15">
@@ -18384,7 +18233,9 @@
         <v>0</v>
       </c>
       <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
+      <c r="F132" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15">
       <c r="A133" s="15">
@@ -18402,7 +18253,9 @@
       <c r="E133" s="15">
         <v>560</v>
       </c>
-      <c r="F133" s="15"/>
+      <c r="F133" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="15">
       <c r="A134" s="15">
@@ -18418,7 +18271,9 @@
         <v>0</v>
       </c>
       <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
+      <c r="F134" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="15">
       <c r="A135" s="15">
@@ -18436,7 +18291,9 @@
       <c r="E135" s="15">
         <v>560</v>
       </c>
-      <c r="F135" s="15"/>
+      <c r="F135" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="15">
       <c r="A136" s="15">
@@ -18454,7 +18311,9 @@
       <c r="E136" s="15">
         <v>560</v>
       </c>
-      <c r="F136" s="15"/>
+      <c r="F136" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="15">
       <c r="A137" s="15">
@@ -18472,7 +18331,9 @@
       <c r="E137" s="15">
         <v>560</v>
       </c>
-      <c r="F137" s="15"/>
+      <c r="F137" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="15">
       <c r="A138" s="15">
@@ -18488,7 +18349,9 @@
         <v>0</v>
       </c>
       <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
+      <c r="F138" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="15">
       <c r="A139" s="15">
@@ -18506,7 +18369,9 @@
       <c r="E139" s="15">
         <v>560</v>
       </c>
-      <c r="F139" s="15"/>
+      <c r="F139" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15">
       <c r="A140" s="15">
@@ -18522,7 +18387,9 @@
         <v>0</v>
       </c>
       <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
+      <c r="F140" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="15">
       <c r="A141" s="15">
@@ -18538,7 +18405,9 @@
         <v>0</v>
       </c>
       <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
+      <c r="F141" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="15">
       <c r="A142" s="15">
@@ -18556,7 +18425,9 @@
       <c r="E142" s="15">
         <v>560</v>
       </c>
-      <c r="F142" s="15"/>
+      <c r="F142" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="15">
       <c r="A143" s="15">
@@ -18574,7 +18445,9 @@
       <c r="E143" s="15">
         <v>560</v>
       </c>
-      <c r="F143" s="15"/>
+      <c r="F143" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="15">
       <c r="A144" s="15">
@@ -18592,7 +18465,9 @@
       <c r="E144" s="15">
         <v>560</v>
       </c>
-      <c r="F144" s="15"/>
+      <c r="F144" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="15">
       <c r="A145" s="15">
@@ -18610,7 +18485,9 @@
       <c r="E145" s="15">
         <v>560</v>
       </c>
-      <c r="F145" s="15"/>
+      <c r="F145" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="15">
       <c r="A146" s="15">
@@ -18628,7 +18505,9 @@
       <c r="E146" s="15">
         <v>560</v>
       </c>
-      <c r="F146" s="15"/>
+      <c r="F146" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="147" spans="1:6" ht="15">
       <c r="A147" s="15">
@@ -18646,7 +18525,9 @@
       <c r="E147" s="15">
         <v>560</v>
       </c>
-      <c r="F147" s="15"/>
+      <c r="F147" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="148" spans="1:6" ht="15">
       <c r="A148" s="15">
@@ -18664,7 +18545,9 @@
       <c r="E148" s="15">
         <v>560</v>
       </c>
-      <c r="F148" s="15"/>
+      <c r="F148" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="149" spans="1:6" ht="15">
       <c r="A149" s="15">
@@ -18682,7 +18565,9 @@
       <c r="E149" s="15">
         <v>560</v>
       </c>
-      <c r="F149" s="15"/>
+      <c r="F149" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="15">
       <c r="A150" s="15">
@@ -18700,7 +18585,9 @@
       <c r="E150" s="15">
         <v>560</v>
       </c>
-      <c r="F150" s="15"/>
+      <c r="F150" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="151" spans="1:6" ht="15">
       <c r="A151" s="15">
@@ -18716,7 +18603,9 @@
         <v>0</v>
       </c>
       <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
+      <c r="F151" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="152" spans="1:6" ht="15">
       <c r="A152" s="15">
@@ -18732,7 +18621,9 @@
         <v>0</v>
       </c>
       <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
+      <c r="F152" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="153" spans="1:6" ht="15">
       <c r="A153" s="15">
@@ -18750,7 +18641,9 @@
       <c r="E153" s="15">
         <v>560</v>
       </c>
-      <c r="F153" s="15"/>
+      <c r="F153" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="15">
       <c r="A154" s="15">
@@ -18768,7 +18661,9 @@
       <c r="E154" s="15">
         <v>560</v>
       </c>
-      <c r="F154" s="15"/>
+      <c r="F154" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="15">
       <c r="A155" s="15">
@@ -18786,7 +18681,9 @@
       <c r="E155" s="15">
         <v>560</v>
       </c>
-      <c r="F155" s="15"/>
+      <c r="F155" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="156" spans="1:6" ht="15">
       <c r="A156" s="15">
@@ -18804,7 +18701,9 @@
       <c r="E156" s="15">
         <v>560</v>
       </c>
-      <c r="F156" s="15"/>
+      <c r="F156" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="157" spans="1:6" ht="15">
       <c r="A157" s="15">
@@ -18822,7 +18721,9 @@
       <c r="E157" s="15">
         <v>560</v>
       </c>
-      <c r="F157" s="15"/>
+      <c r="F157" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="158" spans="1:6" ht="15">
       <c r="A158" s="15">
@@ -18838,7 +18739,9 @@
         <v>0</v>
       </c>
       <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
+      <c r="F158" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="15">
       <c r="A159" s="15">
@@ -18856,7 +18759,9 @@
       <c r="E159" s="15">
         <v>560</v>
       </c>
-      <c r="F159" s="15"/>
+      <c r="F159" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="160" spans="1:6" ht="15">
       <c r="A160" s="15">
@@ -18874,7 +18779,9 @@
       <c r="E160" s="15">
         <v>560</v>
       </c>
-      <c r="F160" s="15"/>
+      <c r="F160" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="15">
       <c r="A161" s="15">
@@ -18890,7 +18797,9 @@
         <v>0</v>
       </c>
       <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
+      <c r="F161" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="15">
       <c r="A162" s="15">
@@ -18908,7 +18817,9 @@
       <c r="E162" s="15">
         <v>560</v>
       </c>
-      <c r="F162" s="15"/>
+      <c r="F162" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="163" spans="1:6" ht="15">
       <c r="A163" s="15">
@@ -18926,7 +18837,9 @@
       <c r="E163" s="15">
         <v>560</v>
       </c>
-      <c r="F163" s="15"/>
+      <c r="F163" s="15">
+        <v>43106</v>
+      </c>
     </row>
     <row r="164" spans="1:6" ht="15">
       <c r="A164" s="15">
@@ -18944,7 +18857,9 @@
       <c r="E164" s="15">
         <v>560</v>
       </c>
-      <c r="F164" s="15"/>
+      <c r="F164" s="15">
+        <v>43106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18954,10 +18869,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22021,7 +21936,9 @@
       <c r="E153" s="7">
         <v>577</v>
       </c>
-      <c r="F153" s="7"/>
+      <c r="F153" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="16.5">
       <c r="A154" s="7">
@@ -22039,7 +21956,9 @@
       <c r="E154" s="7">
         <v>577</v>
       </c>
-      <c r="F154" s="7"/>
+      <c r="F154" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="28.5">
       <c r="A155" s="7">
@@ -22057,7 +21976,9 @@
       <c r="E155" s="7">
         <v>577</v>
       </c>
-      <c r="F155" s="7"/>
+      <c r="F155" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="156" spans="1:6" ht="28.5">
       <c r="A156" s="7">
@@ -22075,7 +21996,9 @@
       <c r="E156" s="7">
         <v>577</v>
       </c>
-      <c r="F156" s="7"/>
+      <c r="F156" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="157" spans="1:6" ht="16.5">
       <c r="A157" s="7">
@@ -22093,7 +22016,9 @@
       <c r="E157" s="7">
         <v>577</v>
       </c>
-      <c r="F157" s="7"/>
+      <c r="F157" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="158" spans="1:6" ht="28.5">
       <c r="A158" s="7">
@@ -22111,7 +22036,9 @@
       <c r="E158" s="7">
         <v>577</v>
       </c>
-      <c r="F158" s="7"/>
+      <c r="F158" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="28.5">
       <c r="A159" s="7">
@@ -22127,7 +22054,9 @@
         <v>0</v>
       </c>
       <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
+      <c r="F159" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="160" spans="1:6" ht="28.5">
       <c r="A160" s="7">
@@ -22145,7 +22074,9 @@
       <c r="E160" s="7">
         <v>577</v>
       </c>
-      <c r="F160" s="7"/>
+      <c r="F160" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="16.5">
       <c r="A161" s="7">
@@ -22163,7 +22094,9 @@
       <c r="E161" s="7">
         <v>577</v>
       </c>
-      <c r="F161" s="7"/>
+      <c r="F161" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="28.5">
       <c r="A162" s="7">
@@ -22179,7 +22112,9 @@
         <v>0</v>
       </c>
       <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
+      <c r="F162" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="163" spans="1:6" ht="28.5">
       <c r="A163" s="7">
@@ -22197,7 +22132,9 @@
       <c r="E163" s="7">
         <v>577</v>
       </c>
-      <c r="F163" s="7"/>
+      <c r="F163" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="164" spans="1:6" ht="28.5">
       <c r="A164" s="7">
@@ -22215,7 +22152,9 @@
       <c r="E164" s="7">
         <v>577</v>
       </c>
-      <c r="F164" s="7"/>
+      <c r="F164" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="165" spans="1:6" ht="28.5">
       <c r="A165" s="7">
@@ -22233,7 +22172,9 @@
       <c r="E165" s="7">
         <v>577</v>
       </c>
-      <c r="F165" s="7"/>
+      <c r="F165" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="166" spans="1:6" ht="28.5">
       <c r="A166" s="7">
@@ -22251,7 +22192,9 @@
       <c r="E166" s="7">
         <v>577</v>
       </c>
-      <c r="F166" s="7"/>
+      <c r="F166" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="167" spans="1:6" ht="28.5">
       <c r="A167" s="7">
@@ -22269,7 +22212,9 @@
       <c r="E167" s="7">
         <v>577</v>
       </c>
-      <c r="F167" s="7"/>
+      <c r="F167" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="168" spans="1:6" ht="28.5">
       <c r="A168" s="7">
@@ -22287,7 +22232,9 @@
       <c r="E168" s="7">
         <v>577</v>
       </c>
-      <c r="F168" s="7"/>
+      <c r="F168" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="169" spans="1:6" ht="28.5">
       <c r="A169" s="7">
@@ -22305,7 +22252,9 @@
       <c r="E169" s="7">
         <v>577</v>
       </c>
-      <c r="F169" s="7"/>
+      <c r="F169" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="170" spans="1:6" ht="28.5">
       <c r="A170" s="7">
@@ -22323,7 +22272,9 @@
       <c r="E170" s="7">
         <v>577</v>
       </c>
-      <c r="F170" s="7"/>
+      <c r="F170" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="16.5">
       <c r="A171" s="7">
@@ -22341,7 +22292,9 @@
       <c r="E171" s="7">
         <v>577</v>
       </c>
-      <c r="F171" s="7"/>
+      <c r="F171" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="172" spans="1:6" ht="16.5">
       <c r="A172" s="7">
@@ -22359,7 +22312,9 @@
       <c r="E172" s="7">
         <v>577</v>
       </c>
-      <c r="F172" s="7"/>
+      <c r="F172" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="173" spans="1:6" ht="28.5">
       <c r="A173" s="7">
@@ -22377,7 +22332,9 @@
       <c r="E173" s="7">
         <v>577</v>
       </c>
-      <c r="F173" s="7"/>
+      <c r="F173" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="174" spans="1:6" ht="28.5">
       <c r="A174" s="7">
@@ -22395,7 +22352,9 @@
       <c r="E174" s="7">
         <v>577</v>
       </c>
-      <c r="F174" s="7"/>
+      <c r="F174" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="175" spans="1:6" ht="28.5">
       <c r="A175" s="7">
@@ -22413,7 +22372,9 @@
       <c r="E175" s="7">
         <v>577</v>
       </c>
-      <c r="F175" s="7"/>
+      <c r="F175" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="176" spans="1:6" ht="28.5">
       <c r="A176" s="7">
@@ -22431,7 +22392,9 @@
       <c r="E176" s="7">
         <v>577</v>
       </c>
-      <c r="F176" s="7"/>
+      <c r="F176" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="177" spans="1:6" ht="16.5">
       <c r="A177" s="7">
@@ -22449,7 +22412,9 @@
       <c r="E177" s="7">
         <v>577</v>
       </c>
-      <c r="F177" s="7"/>
+      <c r="F177" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="178" spans="1:6" ht="28.5">
       <c r="A178" s="7">
@@ -22467,7 +22432,9 @@
       <c r="E178" s="7">
         <v>577</v>
       </c>
-      <c r="F178" s="7"/>
+      <c r="F178" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="179" spans="1:6" ht="28.5">
       <c r="A179" s="7">
@@ -22485,7 +22452,9 @@
       <c r="E179" s="7">
         <v>577</v>
       </c>
-      <c r="F179" s="7"/>
+      <c r="F179" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="180" spans="1:6" ht="28.5">
       <c r="A180" s="7">
@@ -22503,7 +22472,9 @@
       <c r="E180" s="7">
         <v>577</v>
       </c>
-      <c r="F180" s="7"/>
+      <c r="F180" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="181" spans="1:6" ht="28.5">
       <c r="A181" s="7">
@@ -22521,7 +22492,9 @@
       <c r="E181" s="7">
         <v>577</v>
       </c>
-      <c r="F181" s="7"/>
+      <c r="F181" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="182" spans="1:6" ht="28.5">
       <c r="A182" s="7">
@@ -22539,7 +22512,9 @@
       <c r="E182" s="7">
         <v>577</v>
       </c>
-      <c r="F182" s="7"/>
+      <c r="F182" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="183" spans="1:6" ht="28.5">
       <c r="A183" s="7">
@@ -22557,7 +22532,9 @@
       <c r="E183" s="7">
         <v>577</v>
       </c>
-      <c r="F183" s="7"/>
+      <c r="F183" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="184" spans="1:6" ht="47.25">
       <c r="A184" s="7">
@@ -22575,7 +22552,9 @@
       <c r="E184" s="7">
         <v>577</v>
       </c>
-      <c r="F184" s="7"/>
+      <c r="F184" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="185" spans="1:6" ht="47.25">
       <c r="A185" s="7">
@@ -22593,7 +22572,9 @@
       <c r="E185" s="7">
         <v>577</v>
       </c>
-      <c r="F185" s="7"/>
+      <c r="F185" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="186" spans="1:6" ht="61.5">
       <c r="A186" s="7">
@@ -22611,7 +22592,9 @@
       <c r="E186" s="7">
         <v>577</v>
       </c>
-      <c r="F186" s="7"/>
+      <c r="F186" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="187" spans="1:6" ht="61.5">
       <c r="A187" s="7">
@@ -22629,7 +22612,12 @@
       <c r="E187" s="7">
         <v>577</v>
       </c>
-      <c r="F187" s="7"/>
+      <c r="F187" s="7">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="16.5">
+      <c r="F188" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -9265,10 +9265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12181,334 +12181,6 @@
       <c r="F146" s="5">
         <v>29207</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="16.5">
-      <c r="A147" s="7"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="1:6" ht="16.5">
-      <c r="A148" s="7"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" ht="16.5">
-      <c r="A149" s="7"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-    </row>
-    <row r="150" spans="1:6" ht="16.5">
-      <c r="A150" s="7"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" ht="16.5">
-      <c r="A151" s="7"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" spans="1:6" ht="16.5">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" spans="1:6" ht="16.5">
-      <c r="A153" s="7"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" ht="16.5">
-      <c r="A154" s="7"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="1:6" ht="16.5">
-      <c r="A155" s="7"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-    </row>
-    <row r="156" spans="1:6" ht="16.5">
-      <c r="A156" s="7"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-    </row>
-    <row r="157" spans="1:6" ht="16.5">
-      <c r="A157" s="7"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-    </row>
-    <row r="158" spans="1:6" ht="16.5">
-      <c r="A158" s="7"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-    </row>
-    <row r="159" spans="1:6" ht="16.5">
-      <c r="A159" s="7"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-    </row>
-    <row r="160" spans="1:6" ht="16.5">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-    </row>
-    <row r="161" spans="1:6" ht="16.5">
-      <c r="A161" s="7"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-    </row>
-    <row r="162" spans="1:6" ht="16.5">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-    </row>
-    <row r="163" spans="1:6" ht="16.5">
-      <c r="A163" s="7"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-    </row>
-    <row r="164" spans="1:6" ht="16.5">
-      <c r="A164" s="7"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-    </row>
-    <row r="165" spans="1:6" ht="16.5">
-      <c r="A165" s="7"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-    </row>
-    <row r="166" spans="1:6" ht="16.5">
-      <c r="A166" s="7"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-    </row>
-    <row r="167" spans="1:6" ht="16.5">
-      <c r="A167" s="7"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-    </row>
-    <row r="168" spans="1:6" ht="16.5">
-      <c r="A168" s="7"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-    </row>
-    <row r="169" spans="1:6" ht="16.5">
-      <c r="A169" s="7"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-    </row>
-    <row r="170" spans="1:6" ht="16.5">
-      <c r="A170" s="7"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-    </row>
-    <row r="171" spans="1:6" ht="16.5">
-      <c r="A171" s="7"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-    </row>
-    <row r="172" spans="1:6" ht="16.5">
-      <c r="A172" s="7"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-    </row>
-    <row r="173" spans="1:6" ht="16.5">
-      <c r="A173" s="7"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-    </row>
-    <row r="174" spans="1:6" ht="16.5">
-      <c r="A174" s="7"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-    </row>
-    <row r="175" spans="1:6" ht="16.5">
-      <c r="A175" s="7"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-    </row>
-    <row r="176" spans="1:6" ht="16.5">
-      <c r="A176" s="7"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-    </row>
-    <row r="177" spans="1:6" ht="16.5">
-      <c r="A177" s="7"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-    </row>
-    <row r="178" spans="1:6" ht="16.5">
-      <c r="A178" s="7"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-    </row>
-    <row r="179" spans="1:6" ht="16.5">
-      <c r="A179" s="7"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-    </row>
-    <row r="180" spans="1:6" ht="16.5">
-      <c r="A180" s="7"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-    </row>
-    <row r="181" spans="1:6" ht="16.5">
-      <c r="A181" s="7"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-    </row>
-    <row r="182" spans="1:6" ht="16.5">
-      <c r="A182" s="7"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-    </row>
-    <row r="183" spans="1:6" ht="16.5">
-      <c r="A183" s="7"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-    </row>
-    <row r="184" spans="1:6" ht="16.5">
-      <c r="A184" s="7"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-    </row>
-    <row r="185" spans="1:6" ht="16.5">
-      <c r="A185" s="7"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-    </row>
-    <row r="186" spans="1:6" ht="16.5">
-      <c r="A186" s="7"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-    </row>
-    <row r="187" spans="1:6" ht="16.5">
-      <c r="A187" s="7"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18871,7 +18543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -9267,7 +9267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -12190,10 +12190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:XFD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15248,9 +15248,6 @@
       <c r="F153" s="13">
         <v>40420</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="F154" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="381">
   <si>
     <t>院校号</t>
   </si>
@@ -3086,6 +3086,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>汕头大学（汕头大学医）</t>
   </si>
 </sst>
 </file>
@@ -3593,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5969,7 +5972,7 @@
         <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="C119" s="2">
         <v>246</v>
@@ -6394,8 +6397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7930,7 +7933,7 @@
         <v>80001</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="C77" s="4">
         <v>246</v>
@@ -9267,13 +9270,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -11036,12 +11041,12 @@
         <v>24729</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="75">
+    <row r="89" spans="1:6" ht="15">
       <c r="A89" s="5">
         <v>80001</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="C89" s="5">
         <v>242</v>
@@ -12192,7 +12197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A154" sqref="A154:XFD154"/>
     </sheetView>
   </sheetViews>
@@ -15259,7 +15264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F163" sqref="F163:F164"/>
     </sheetView>
   </sheetViews>
@@ -18538,10 +18543,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J187" sqref="J187"/>
+    <sheetView topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:XFD188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -22285,9 +22290,6 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="16.5">
-      <c r="F188" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -965,9 +965,6 @@
     <t>80001</t>
   </si>
   <si>
-    <t>汕头大学（汕头大学医学院）</t>
-  </si>
-  <si>
     <t>10541</t>
   </si>
   <si>
@@ -1910,39 +1907,6 @@
   </si>
   <si>
     <r>
-      <t>汕头大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>汕头大学医学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>电子科技大学</t>
     </r>
     <r>
@@ -2771,7 +2735,7 @@
   </si>
   <si>
     <r>
-      <t>汕头大学</t>
+      <t>华北电力大学</t>
     </r>
     <r>
       <rPr>
@@ -2791,7 +2755,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>汕头大学医学院</t>
+      <t>保定</t>
     </r>
     <r>
       <rPr>
@@ -2806,7 +2770,7 @@
   </si>
   <si>
     <r>
-      <t>华北电力大学</t>
+      <t>中国地质大学</t>
     </r>
     <r>
       <rPr>
@@ -2826,7 +2790,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>保定</t>
+      <t>北京</t>
     </r>
     <r>
       <rPr>
@@ -2861,7 +2825,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>北京</t>
+      <t>武汉</t>
     </r>
     <r>
       <rPr>
@@ -2875,8 +2839,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>中国地质大学</t>
+    <t>新疆医科大学</t>
+  </si>
+  <si>
+    <r>
+      <t>中国石油大学</t>
     </r>
     <r>
       <rPr>
@@ -2896,7 +2863,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>武汉</t>
+      <t>华东</t>
     </r>
     <r>
       <rPr>
@@ -2910,11 +2877,8 @@
     </r>
   </si>
   <si>
-    <t>新疆医科大学</t>
-  </si>
-  <si>
-    <r>
-      <t>中国石油大学</t>
+    <r>
+      <t>大连理工大学</t>
     </r>
     <r>
       <rPr>
@@ -2934,7 +2898,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>华东</t>
+      <t>盘锦校区</t>
     </r>
     <r>
       <rPr>
@@ -2949,7 +2913,7 @@
   </si>
   <si>
     <r>
-      <t>大连理工大学</t>
+      <t>中国矿业大学</t>
     </r>
     <r>
       <rPr>
@@ -2969,7 +2933,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>盘锦校区</t>
+      <t>北京</t>
     </r>
     <r>
       <rPr>
@@ -2984,7 +2948,7 @@
   </si>
   <si>
     <r>
-      <t>中国矿业大学</t>
+      <t>华南师范大学</t>
     </r>
     <r>
       <rPr>
@@ -3004,7 +2968,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>北京</t>
+      <t>中外合作办学专业</t>
     </r>
     <r>
       <rPr>
@@ -3019,7 +2983,7 @@
   </si>
   <si>
     <r>
-      <t>华南师范大学</t>
+      <t>合肥工业大学</t>
     </r>
     <r>
       <rPr>
@@ -3039,7 +3003,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>中外合作办学专业</t>
+      <t>宣城校区</t>
     </r>
     <r>
       <rPr>
@@ -3053,8 +3017,47 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>合肥工业大学</t>
+    <t>汕头大学（汕头大学医）</t>
+  </si>
+  <si>
+    <t>汕头大学（汕头大学医学）</t>
+  </si>
+  <si>
+    <r>
+      <t>汕头大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>汕头大学医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>汕头大学</t>
     </r>
     <r>
       <rPr>
@@ -3074,7 +3077,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>宣城校区</t>
+      <t>汕头大学医</t>
     </r>
     <r>
       <rPr>
@@ -3086,9 +3089,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>汕头大学（汕头大学医）</t>
   </si>
 </sst>
 </file>
@@ -3596,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
@@ -5972,7 +5972,7 @@
         <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C119" s="2">
         <v>246</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="120" spans="1:6" ht="15">
       <c r="A120" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="C120" s="2">
         <v>7</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="121" spans="1:6" ht="15">
       <c r="A121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="C121" s="2">
         <v>18</v>
@@ -6029,10 +6029,10 @@
     </row>
     <row r="122" spans="1:6" ht="15">
       <c r="A122" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="C122" s="2">
         <v>17</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="123" spans="1:6" ht="15">
       <c r="A123" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C123" s="2">
         <v>30</v>
@@ -6069,10 +6069,10 @@
     </row>
     <row r="124" spans="1:6" ht="15">
       <c r="A124" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="C124" s="2">
         <v>15</v>
@@ -6089,10 +6089,10 @@
     </row>
     <row r="125" spans="1:6" ht="15">
       <c r="A125" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="C125" s="2">
         <v>14</v>
@@ -6109,10 +6109,10 @@
     </row>
     <row r="126" spans="1:6" ht="15">
       <c r="A126" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="C126" s="2">
         <v>37</v>
@@ -6129,10 +6129,10 @@
     </row>
     <row r="127" spans="1:6" ht="15">
       <c r="A127" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="C127" s="2">
         <v>26</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="128" spans="1:6" ht="15">
       <c r="A128" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C128" s="2">
         <v>186</v>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="129" spans="1:6" ht="15">
       <c r="A129" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C129" s="2">
         <v>81</v>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="130" spans="1:6" ht="15">
       <c r="A130" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="C130" s="2">
         <v>640</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="131" spans="1:6" ht="15">
       <c r="A131" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C131" s="2">
         <v>408</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="132" spans="1:6" ht="15">
       <c r="A132" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="C132" s="2">
         <v>1808</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="133" spans="1:6" ht="15">
       <c r="A133" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="C133" s="2">
         <v>1693</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="134" spans="1:6" ht="15">
       <c r="A134" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C134" s="2">
         <v>5457</v>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="135" spans="1:6" ht="15">
       <c r="A135" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="C135" s="2">
         <v>15</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="136" spans="1:6" ht="15">
       <c r="A136" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C136" s="2">
         <v>16</v>
@@ -6329,10 +6329,10 @@
     </row>
     <row r="137" spans="1:6" ht="15">
       <c r="A137" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C137" s="2">
         <v>11</v>
@@ -6349,10 +6349,10 @@
     </row>
     <row r="138" spans="1:6" ht="15">
       <c r="A138" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="139" spans="1:6" ht="15">
       <c r="A139" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C139" s="2">
         <v>6</v>
@@ -6410,7 +6410,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -6653,7 +6653,7 @@
         <v>19248</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -7793,7 +7793,7 @@
         <v>10276</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -7933,7 +7933,7 @@
         <v>80001</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C77" s="4">
         <v>246</v>
@@ -8153,7 +8153,7 @@
         <v>19213</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C88" s="4">
         <v>20</v>
@@ -8173,7 +8173,7 @@
         <v>10541</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C89" s="4">
         <v>10</v>
@@ -8313,7 +8313,7 @@
         <v>10570</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C96" s="4">
         <v>310</v>
@@ -8333,7 +8333,7 @@
         <v>10140</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" s="4">
         <v>16</v>
@@ -8353,7 +8353,7 @@
         <v>10635</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C98" s="4">
         <v>36</v>
@@ -8413,7 +8413,7 @@
         <v>10542</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C101" s="4">
         <v>28</v>
@@ -8473,7 +8473,7 @@
         <v>10043</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C104" s="4">
         <v>14</v>
@@ -8533,7 +8533,7 @@
         <v>10126</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C107" s="4">
         <v>7</v>
@@ -8611,7 +8611,7 @@
         <v>10184</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C111" s="4">
         <v>6</v>
@@ -8669,7 +8669,7 @@
         <v>10225</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C114" s="4">
         <v>19</v>
@@ -8707,7 +8707,7 @@
         <v>10290</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C116" s="4">
         <v>90</v>
@@ -8767,7 +8767,7 @@
         <v>10300</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C119" s="4">
         <v>12</v>
@@ -8847,7 +8847,7 @@
         <v>10385</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C123" s="4">
         <v>182</v>
@@ -8867,7 +8867,7 @@
         <v>10459</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C124" s="4">
         <v>36</v>
@@ -8927,7 +8927,7 @@
         <v>10560</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C127" s="4">
         <v>675</v>
@@ -8947,7 +8947,7 @@
         <v>10564</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C128" s="4">
         <v>5324</v>
@@ -8967,7 +8967,7 @@
         <v>10572</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C129" s="4">
         <v>1807</v>
@@ -9007,7 +9007,7 @@
         <v>10593</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C131" s="4">
         <v>5</v>
@@ -9087,7 +9087,7 @@
         <v>10700</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135" s="4">
         <v>54</v>
@@ -9185,7 +9185,7 @@
         <v>12121</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C140" s="4">
         <v>1899</v>
@@ -9225,7 +9225,7 @@
         <v>19422</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C142" s="4">
         <v>32</v>
@@ -9245,7 +9245,7 @@
         <v>19614</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C143" s="4">
         <v>20</v>
@@ -9283,7 +9283,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -9301,7 +9301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="5">
         <v>10003</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="5">
         <v>10001</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="5">
         <v>10248</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="5">
         <v>19001</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="5">
         <v>10335</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="5">
         <v>10246</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="5">
         <v>10358</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="5">
         <v>10002</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="5">
         <v>10284</v>
       </c>
@@ -9481,12 +9481,12 @@
         <v>803</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="5">
         <v>19248</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -9501,7 +9501,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="5">
         <v>10272</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="5">
         <v>10034</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="5">
         <v>10247</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="5">
         <v>10055</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="5">
         <v>10030</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="5">
         <v>10006</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="5">
         <v>10036</v>
       </c>
@@ -9641,12 +9641,12 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="5">
         <v>19002</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -9661,7 +9661,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="5">
         <v>10053</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="5">
         <v>10698</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="5">
         <v>10271</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="5">
         <v>10558</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>6082</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="5">
         <v>10384</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="5">
         <v>10013</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="5">
         <v>10561</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>9024</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="5">
         <v>10286</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>9113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="5">
         <v>10026</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>9130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="5">
         <v>10213</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>9387</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="5">
         <v>10486</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="5">
         <v>10007</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>10268</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="5">
         <v>10056</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>10825</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="5">
         <v>10033</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="5">
         <v>10559</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>11744</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="5">
         <v>10703</v>
       </c>
@@ -9981,12 +9981,12 @@
         <v>12065</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="5">
         <v>10054</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C36" s="5">
         <v>72</v>
@@ -10001,7 +10001,7 @@
         <v>12320</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="5">
         <v>10004</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>12460</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="5">
         <v>10533</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>12514</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="5">
         <v>10610</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>12524</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="5">
         <v>10031</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>12942</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="5">
         <v>10651</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>12994</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="5">
         <v>10141</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>13157</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="5">
         <v>10008</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>13395</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="5">
         <v>10532</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="5">
         <v>10614</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>14280</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="5">
         <v>10019</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>14354</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="5">
         <v>10288</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="5">
         <v>10251</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>15180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="5">
         <v>10487</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>15332</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="5">
         <v>10520</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>15752</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="5">
         <v>10611</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>15786</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="5">
         <v>10287</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>16496</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="5">
         <v>10701</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>16772</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="5">
         <v>10052</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>16794</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30">
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="5">
         <v>10280</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>16895</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30">
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="5">
         <v>10497</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>17073</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="5">
         <v>10173</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>17253</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="5">
         <v>11846</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>17488</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6" ht="15">
       <c r="A59" s="5">
         <v>10070</v>
       </c>
@@ -10461,12 +10461,12 @@
         <v>17585</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60">
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="5">
         <v>19013</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" s="5">
         <v>19</v>
@@ -10481,7 +10481,7 @@
         <v>17608</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30">
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="5">
         <v>10613</v>
       </c>
@@ -10501,12 +10501,12 @@
         <v>17702</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45">
+    <row r="62" spans="1:6" ht="15">
       <c r="A62" s="5">
         <v>10079</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" s="5">
         <v>67</v>
@@ -10521,7 +10521,7 @@
         <v>17706</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30">
+    <row r="63" spans="1:6" ht="15">
       <c r="A63" s="5">
         <v>10293</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>18136</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30">
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="5">
         <v>10652</v>
       </c>
@@ -10561,12 +10561,12 @@
         <v>18152</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45">
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="5">
         <v>19213</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C65" s="5">
         <v>25</v>
@@ -10581,12 +10581,12 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30">
+    <row r="66" spans="1:6" ht="15">
       <c r="A66" s="5">
         <v>10276</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C66" s="5">
         <v>27</v>
@@ -10601,7 +10601,7 @@
         <v>18808</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="5">
         <v>10252</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>19247</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="5">
         <v>10255</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>19489</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30">
+    <row r="69" spans="1:6" ht="15">
       <c r="A69" s="5">
         <v>10423</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>19899</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30">
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="5">
         <v>10386</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>20157</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30">
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="5">
         <v>10574</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>20245</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30">
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="5">
         <v>10005</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>20926</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30">
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="5">
         <v>10730</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>21526</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30">
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="5">
         <v>10010</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>21850</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30">
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="5">
         <v>10359</v>
       </c>
@@ -10781,12 +10781,12 @@
         <v>21962</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45">
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="5">
         <v>10491</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C76" s="5">
         <v>47</v>
@@ -10801,7 +10801,7 @@
         <v>22208</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30">
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="5">
         <v>10183</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>22234</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30">
+    <row r="78" spans="1:6" ht="15">
       <c r="A78" s="5">
         <v>10294</v>
       </c>
@@ -10841,12 +10841,12 @@
         <v>22297</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45">
+    <row r="79" spans="1:6" ht="15">
       <c r="A79" s="5">
         <v>10425</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C79" s="5">
         <v>40</v>
@@ -10861,7 +10861,7 @@
         <v>23126</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30">
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="5">
         <v>10316</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>23353</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30">
+    <row r="81" spans="1:6" ht="15">
       <c r="A81" s="5">
         <v>10145</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>23386</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6" ht="15">
       <c r="A82" s="5">
         <v>10511</v>
       </c>
@@ -10921,12 +10921,12 @@
         <v>23672</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45">
+    <row r="83" spans="1:6" ht="15">
       <c r="A83" s="5">
         <v>11415</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C83" s="5">
         <v>29</v>
@@ -10941,12 +10941,12 @@
         <v>23997</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30">
+    <row r="84" spans="1:6" ht="15">
       <c r="A84" s="5">
         <v>10635</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" s="5">
         <v>42</v>
@@ -10961,12 +10961,12 @@
         <v>24017</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="15">
       <c r="A85" s="5">
         <v>10570</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C85" s="5">
         <v>208</v>
@@ -10981,12 +10981,12 @@
         <v>24324</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="15">
       <c r="A86" s="5">
         <v>10542</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="5">
         <v>24</v>
@@ -11001,7 +11001,7 @@
         <v>24383</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30">
+    <row r="87" spans="1:6" ht="15">
       <c r="A87" s="5">
         <v>10285</v>
       </c>
@@ -11021,12 +11021,12 @@
         <v>24387</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30">
+    <row r="88" spans="1:6" ht="15">
       <c r="A88" s="5">
         <v>10269</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C88" s="5">
         <v>12</v>
@@ -11046,7 +11046,7 @@
         <v>80001</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C89" s="5">
         <v>242</v>
@@ -11061,7 +11061,7 @@
         <v>24749</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30">
+    <row r="90" spans="1:6" ht="15">
       <c r="A90" s="5">
         <v>10710</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>24898</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30">
+    <row r="91" spans="1:6" ht="15">
       <c r="A91" s="5">
         <v>10159</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>25164</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30">
+    <row r="92" spans="1:6" ht="15">
       <c r="A92" s="5">
         <v>10403</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>25229</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="15">
       <c r="A93" s="5">
         <v>10022</v>
       </c>
@@ -11141,12 +11141,12 @@
         <v>25317</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30">
+    <row r="94" spans="1:6" ht="15">
       <c r="A94" s="5">
         <v>10366</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C94" s="5">
         <v>3</v>
@@ -11161,7 +11161,7 @@
         <v>25590</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30">
+    <row r="95" spans="1:6" ht="15">
       <c r="A95" s="5">
         <v>10598</v>
       </c>
@@ -11181,12 +11181,12 @@
         <v>26421</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="60">
+    <row r="96" spans="1:6" ht="15">
       <c r="A96" s="5">
         <v>19614</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C96" s="5">
         <v>20</v>
@@ -11201,12 +11201,12 @@
         <v>26470</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45">
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="5">
         <v>19422</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C97" s="5">
         <v>35</v>
@@ -11221,12 +11221,12 @@
         <v>26943</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30">
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="5">
         <v>10140</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C98" s="5">
         <v>18</v>
@@ -11241,7 +11241,7 @@
         <v>27283</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30">
+    <row r="99" spans="1:6" ht="15">
       <c r="A99" s="5">
         <v>10216</v>
       </c>
@@ -11261,12 +11261,12 @@
         <v>27389</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="45">
+    <row r="100" spans="1:6" ht="15">
       <c r="A100" s="5">
         <v>11413</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" s="5">
         <v>7</v>
@@ -11281,7 +11281,7 @@
         <v>27484</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="45">
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="5">
         <v>10724</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>28070</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="45">
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="5">
         <v>10107</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>28079</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30">
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="5">
         <v>10151</v>
       </c>
@@ -11341,12 +11341,12 @@
         <v>28425</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="45">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="5">
         <v>10300</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C104" s="5">
         <v>12</v>
@@ -11361,7 +11361,7 @@
         <v>28711</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30">
+    <row r="105" spans="1:6" ht="15">
       <c r="A105" s="5">
         <v>10299</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>29027</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30">
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="5">
         <v>10291</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>29083</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="15">
       <c r="A107" s="5">
         <v>10295</v>
       </c>
@@ -11421,12 +11421,12 @@
         <v>29183</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30">
+    <row r="108" spans="1:6" ht="15">
       <c r="A108" s="5">
         <v>10043</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C108" s="5">
         <v>11</v>
@@ -11441,7 +11441,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30">
+    <row r="109" spans="1:6" ht="15">
       <c r="A109" s="5">
         <v>10080</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30">
+    <row r="110" spans="1:6" ht="15">
       <c r="A110" s="5">
         <v>10112</v>
       </c>
@@ -11481,12 +11481,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30">
+    <row r="111" spans="1:6" ht="15">
       <c r="A111" s="5">
         <v>10126</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C111" s="5">
         <v>6</v>
@@ -11499,7 +11499,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="45">
+    <row r="112" spans="1:6" ht="15">
       <c r="A112" s="5">
         <v>10147</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30">
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="5">
         <v>10163</v>
       </c>
@@ -11537,12 +11537,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30">
+    <row r="114" spans="1:6" ht="15">
       <c r="A114" s="5">
         <v>10184</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C114" s="5">
         <v>6</v>
@@ -11555,7 +11555,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30">
+    <row r="115" spans="1:6" ht="15">
       <c r="A115" s="5">
         <v>10200</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="45">
+    <row r="116" spans="1:6" ht="15">
       <c r="A116" s="5">
         <v>10217</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30">
+    <row r="117" spans="1:6" ht="15">
       <c r="A117" s="5">
         <v>10220</v>
       </c>
@@ -11613,12 +11613,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30">
+    <row r="118" spans="1:6" ht="15">
       <c r="A118" s="5">
         <v>10225</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C118" s="5">
         <v>23</v>
@@ -11631,7 +11631,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="45">
+    <row r="119" spans="1:6" ht="15">
       <c r="A119" s="5">
         <v>10226</v>
       </c>
@@ -11651,12 +11651,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30">
+    <row r="120" spans="1:6" ht="15">
       <c r="A120" s="5">
         <v>10290</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C120" s="5">
         <v>96</v>
@@ -11671,7 +11671,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30">
+    <row r="121" spans="1:6" ht="15">
       <c r="A121" s="5">
         <v>10307</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30">
+    <row r="122" spans="1:6" ht="15">
       <c r="A122" s="5">
         <v>10343</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30">
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="5">
         <v>10357</v>
       </c>
@@ -11731,12 +11731,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30">
+    <row r="124" spans="1:6" ht="15">
       <c r="A124" s="5">
         <v>10385</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C124" s="5">
         <v>160</v>
@@ -11751,7 +11751,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30">
+    <row r="125" spans="1:6" ht="15">
       <c r="A125" s="5">
         <v>10422</v>
       </c>
@@ -11771,12 +11771,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="30">
+    <row r="126" spans="1:6" ht="15">
       <c r="A126" s="5">
         <v>10459</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C126" s="5">
         <v>54</v>
@@ -11791,7 +11791,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30">
+    <row r="127" spans="1:6" ht="15">
       <c r="A127" s="5">
         <v>10504</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30">
+    <row r="128" spans="1:6" ht="15">
       <c r="A128" s="5">
         <v>10530</v>
       </c>
@@ -11831,12 +11831,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="45">
+    <row r="129" spans="1:6" ht="15">
       <c r="A129" s="5">
         <v>10541</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C129" s="5">
         <v>10</v>
@@ -11851,12 +11851,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30">
+    <row r="130" spans="1:6" ht="15">
       <c r="A130" s="5">
         <v>10560</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C130" s="5">
         <v>662</v>
@@ -11871,12 +11871,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30">
+    <row r="131" spans="1:6" ht="15">
       <c r="A131" s="5">
         <v>10564</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C131" s="5">
         <v>5259</v>
@@ -11891,12 +11891,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="45">
+    <row r="132" spans="1:6" ht="15">
       <c r="A132" s="5">
         <v>10572</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C132" s="5">
         <v>1462</v>
@@ -11911,7 +11911,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30">
+    <row r="133" spans="1:6" ht="15">
       <c r="A133" s="5">
         <v>10589</v>
       </c>
@@ -11931,12 +11931,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30">
+    <row r="134" spans="1:6" ht="15">
       <c r="A134" s="5">
         <v>10593</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C134" s="5">
         <v>6</v>
@@ -11951,7 +11951,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30">
+    <row r="135" spans="1:6" ht="15">
       <c r="A135" s="5">
         <v>10657</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30">
+    <row r="136" spans="1:6" ht="15">
       <c r="A136" s="5">
         <v>10697</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30">
+    <row r="137" spans="1:6" ht="15">
       <c r="A137" s="5">
         <v>10699</v>
       </c>
@@ -12011,12 +12011,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30">
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="5">
         <v>10700</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C138" s="5">
         <v>42</v>
@@ -12031,7 +12031,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="5">
         <v>10708</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="45">
+    <row r="140" spans="1:6" ht="15">
       <c r="A140" s="5">
         <v>10712</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="30">
+    <row r="141" spans="1:6" ht="15">
       <c r="A141" s="5">
         <v>10718</v>
       </c>
@@ -12089,12 +12089,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30">
+    <row r="142" spans="1:6" ht="15">
       <c r="A142" s="5">
         <v>10755</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142" s="5">
         <v>4</v>
@@ -12107,12 +12107,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="45">
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="5">
         <v>11414</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C143" s="5">
         <v>16</v>
@@ -12127,12 +12127,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30">
+    <row r="144" spans="1:6" ht="15">
       <c r="A144" s="5">
         <v>12121</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C144" s="5">
         <v>1500</v>
@@ -12147,7 +12147,7 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="45">
+    <row r="145" spans="1:6" ht="15">
       <c r="A145" s="5">
         <v>19145</v>
       </c>
@@ -12167,12 +12167,12 @@
         <v>29207</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="60">
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="5">
         <v>19359</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C146" s="5">
         <v>64</v>
@@ -12197,18 +12197,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:XFD154"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -12223,7 +12225,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
@@ -12331,7 +12333,7 @@
         <v>19248</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" s="12">
         <v>8</v>
@@ -12371,7 +12373,7 @@
         <v>19246</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="12">
         <v>15</v>
@@ -12511,7 +12513,7 @@
         <v>19002</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C16" s="12">
         <v>6</v>
@@ -12951,7 +12953,7 @@
         <v>10269</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="12">
         <v>20</v>
@@ -13251,7 +13253,7 @@
         <v>19213</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="12">
         <v>30</v>
@@ -13311,7 +13313,7 @@
         <v>11846</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C56" s="12">
         <v>1821</v>
@@ -13346,12 +13348,12 @@
         <v>17854</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="75">
+    <row r="58" spans="1:6" ht="30">
       <c r="A58" s="11">
         <v>80001</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
       <c r="C58" s="12">
         <v>242</v>
@@ -13551,7 +13553,7 @@
         <v>10276</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C68" s="12">
         <v>34</v>
@@ -13611,7 +13613,7 @@
         <v>19614</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C71" s="12">
         <v>30</v>
@@ -13671,7 +13673,7 @@
         <v>10366</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C74" s="12">
         <v>8</v>
@@ -13731,7 +13733,7 @@
         <v>10590</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C77" s="12">
         <v>620</v>
@@ -13931,7 +13933,7 @@
         <v>10542</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87" s="12">
         <v>24</v>
@@ -13951,7 +13953,7 @@
         <v>12121</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C88" s="12">
         <v>1262</v>
@@ -13991,7 +13993,7 @@
         <v>19422</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C90" s="12">
         <v>48</v>
@@ -14091,7 +14093,7 @@
         <v>10300</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="12">
         <v>11</v>
@@ -14111,7 +14113,7 @@
         <v>10635</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C96" s="12">
         <v>45</v>
@@ -14191,7 +14193,7 @@
         <v>10570</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C100" s="12">
         <v>441</v>
@@ -14291,7 +14293,7 @@
         <v>10560</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105" s="12">
         <v>664</v>
@@ -14331,7 +14333,7 @@
         <v>10290</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C107" s="12">
         <v>94</v>
@@ -14351,7 +14353,7 @@
         <v>10459</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" s="12">
         <v>60</v>
@@ -14431,7 +14433,7 @@
         <v>10343</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C112" s="12">
         <v>15</v>
@@ -14451,7 +14453,7 @@
         <v>10541</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C113" s="12">
         <v>10</v>
@@ -14491,7 +14493,7 @@
         <v>10043</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C115" s="12">
         <v>16</v>
@@ -14591,7 +14593,7 @@
         <v>10126</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C120" s="12">
         <v>7</v>
@@ -14609,7 +14611,7 @@
         <v>10140</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C121" s="12">
         <v>18</v>
@@ -14667,7 +14669,7 @@
         <v>10184</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C124" s="12">
         <v>6</v>
@@ -14727,7 +14729,7 @@
         <v>10224</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C127" s="12">
         <v>79</v>
@@ -14747,7 +14749,7 @@
         <v>10225</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C128" s="12">
         <v>26</v>
@@ -14825,7 +14827,7 @@
         <v>10385</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C132" s="12">
         <v>165</v>
@@ -14945,7 +14947,7 @@
         <v>10564</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C138" s="12">
         <v>5622</v>
@@ -14965,7 +14967,7 @@
         <v>10572</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C139" s="12">
         <v>1322</v>
@@ -15005,7 +15007,7 @@
         <v>10593</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C141" s="12">
         <v>7</v>
@@ -15025,7 +15027,7 @@
         <v>10626</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C142" s="12">
         <v>20</v>
@@ -15063,7 +15065,7 @@
         <v>10700</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" s="12">
         <v>45</v>
@@ -15141,7 +15143,7 @@
         <v>10755</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C148" s="12">
         <v>4</v>
@@ -15159,7 +15161,7 @@
         <v>11078</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C149" s="12">
         <v>767</v>
@@ -15179,7 +15181,7 @@
         <v>11845</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C150" s="12">
         <v>4949</v>
@@ -15199,7 +15201,7 @@
         <v>19141</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C151" s="12">
         <v>13</v>
@@ -15239,7 +15241,7 @@
         <v>19359</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C153" s="12">
         <v>80</v>
@@ -15264,18 +15266,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163:F164"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -15478,7 +15482,7 @@
         <v>19246</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="15">
         <v>11</v>
@@ -15578,7 +15582,7 @@
         <v>19248</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -15758,7 +15762,7 @@
         <v>10269</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="15">
         <v>18</v>
@@ -16158,7 +16162,7 @@
         <v>80001</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="C45" s="15">
         <v>242</v>
@@ -16298,7 +16302,7 @@
         <v>19614</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C52" s="15">
         <v>55</v>
@@ -16338,7 +16342,7 @@
         <v>19213</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="15">
         <v>35</v>
@@ -16358,7 +16362,7 @@
         <v>10276</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C55" s="15">
         <v>30</v>
@@ -16398,7 +16402,7 @@
         <v>10590</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C57" s="15">
         <v>1211</v>
@@ -16438,7 +16442,7 @@
         <v>11414</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C59" s="15">
         <v>17</v>
@@ -16598,7 +16602,7 @@
         <v>19013</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C67" s="15">
         <v>26</v>
@@ -16618,7 +16622,7 @@
         <v>12121</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" s="15">
         <v>1128</v>
@@ -16758,7 +16762,7 @@
         <v>10054</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C75" s="15">
         <v>86</v>
@@ -16778,7 +16782,7 @@
         <v>60384</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C76" s="15">
         <v>12</v>
@@ -16858,7 +16862,7 @@
         <v>10635</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C80" s="15">
         <v>39</v>
@@ -16878,7 +16882,7 @@
         <v>10560</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="15">
         <v>652</v>
@@ -16898,7 +16902,7 @@
         <v>11415</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C82" s="15">
         <v>35</v>
@@ -16938,7 +16942,7 @@
         <v>60652</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C84" s="15">
         <v>4</v>
@@ -16958,7 +16962,7 @@
         <v>11413</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C85" s="15">
         <v>17</v>
@@ -16998,7 +17002,7 @@
         <v>10343</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C87" s="15">
         <v>15</v>
@@ -17018,7 +17022,7 @@
         <v>10366</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C88" s="15">
         <v>8</v>
@@ -17038,7 +17042,7 @@
         <v>10491</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C89" s="15">
         <v>84</v>
@@ -17098,7 +17102,7 @@
         <v>10319</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C92" s="15">
         <v>2</v>
@@ -17158,7 +17162,7 @@
         <v>10459</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="15">
         <v>69</v>
@@ -17178,7 +17182,7 @@
         <v>10541</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C96" s="15">
         <v>6</v>
@@ -17198,7 +17202,7 @@
         <v>10542</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="15">
         <v>32</v>
@@ -17238,7 +17242,7 @@
         <v>10421</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C99" s="15">
         <v>93</v>
@@ -17258,7 +17262,7 @@
         <v>10425</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C100" s="15">
         <v>55</v>
@@ -17278,7 +17282,7 @@
         <v>10043</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101" s="15">
         <v>6</v>
@@ -17298,7 +17302,7 @@
         <v>10593</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" s="15">
         <v>9</v>
@@ -17398,7 +17402,7 @@
         <v>10290</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C107" s="15">
         <v>92</v>
@@ -17418,7 +17422,7 @@
         <v>19141</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C108" s="15">
         <v>14</v>
@@ -17458,7 +17462,7 @@
         <v>19422</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C110" s="15">
         <v>53</v>
@@ -17498,7 +17502,7 @@
         <v>10300</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C112" s="15">
         <v>15</v>
@@ -17538,7 +17542,7 @@
         <v>11078</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C114" s="15">
         <v>1183</v>
@@ -17558,7 +17562,7 @@
         <v>10570</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C115" s="15">
         <v>1129</v>
@@ -17578,7 +17582,7 @@
         <v>10385</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116" s="15">
         <v>156</v>
@@ -17698,7 +17702,7 @@
         <v>11845</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C122" s="15">
         <v>7340</v>
@@ -17718,7 +17722,7 @@
         <v>10564</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C123" s="15">
         <v>4754</v>
@@ -17838,7 +17842,7 @@
         <v>10079</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C129" s="15">
         <v>80</v>
@@ -17898,7 +17902,7 @@
         <v>10126</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C132" s="15">
         <v>6</v>
@@ -17916,7 +17920,7 @@
         <v>10140</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C133" s="15">
         <v>18</v>
@@ -18014,7 +18018,7 @@
         <v>10184</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C138" s="15">
         <v>6</v>
@@ -18070,7 +18074,7 @@
         <v>10224</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C141" s="15">
         <v>34</v>
@@ -18088,7 +18092,7 @@
         <v>10225</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C142" s="15">
         <v>16</v>
@@ -18128,7 +18132,7 @@
         <v>10254</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C144" s="15">
         <v>134</v>
@@ -18148,7 +18152,7 @@
         <v>10264</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C145" s="15">
         <v>81</v>
@@ -18228,7 +18232,7 @@
         <v>10338</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C149" s="15">
         <v>130</v>
@@ -18248,7 +18252,7 @@
         <v>10490</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C150" s="15">
         <v>30</v>
@@ -18268,7 +18272,7 @@
         <v>10537</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C151" s="15">
         <v>101</v>
@@ -18286,7 +18290,7 @@
         <v>10538</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C152" s="15">
         <v>94</v>
@@ -18304,7 +18308,7 @@
         <v>10555</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C153" s="15">
         <v>100</v>
@@ -18324,7 +18328,7 @@
         <v>10572</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C154" s="15">
         <v>1214</v>
@@ -18364,7 +18368,7 @@
         <v>10626</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C156" s="15">
         <v>10</v>
@@ -18384,7 +18388,7 @@
         <v>10700</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C157" s="15">
         <v>36</v>
@@ -18462,7 +18466,7 @@
         <v>10755</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C161" s="15">
         <v>2</v>
@@ -18480,7 +18484,7 @@
         <v>19002</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C162" s="15">
         <v>10</v>
@@ -18520,7 +18524,7 @@
         <v>19359</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C164" s="15">
         <v>64</v>
@@ -18545,18 +18549,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:XFD188"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -18565,7 +18571,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -18659,7 +18665,7 @@
         <v>19248</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -18679,7 +18685,7 @@
         <v>19246</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -18899,7 +18905,7 @@
         <v>10027</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
@@ -18979,7 +18985,7 @@
         <v>19002</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C22" s="7">
         <v>10</v>
@@ -19019,7 +19025,7 @@
         <v>10269</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" s="7">
         <v>25</v>
@@ -19059,7 +19065,7 @@
         <v>19335</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -19619,7 +19625,7 @@
         <v>10276</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C54" s="7">
         <v>16</v>
@@ -19679,7 +19685,7 @@
         <v>19614</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C57" s="7">
         <v>55</v>
@@ -19719,7 +19725,7 @@
         <v>60384</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C59" s="7">
         <v>16</v>
@@ -19779,7 +19785,7 @@
         <v>10054</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C62" s="7">
         <v>87</v>
@@ -19859,7 +19865,7 @@
         <v>10590</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C66" s="7">
         <v>2017</v>
@@ -19879,7 +19885,7 @@
         <v>19213</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C67" s="7">
         <v>42</v>
@@ -19899,7 +19905,7 @@
         <v>60652</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
@@ -20139,7 +20145,7 @@
         <v>19013</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C80" s="7">
         <v>28</v>
@@ -20279,7 +20285,7 @@
         <v>10560</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" s="7">
         <v>657</v>
@@ -20299,7 +20305,7 @@
         <v>10635</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" s="7">
         <v>30</v>
@@ -20319,7 +20325,7 @@
         <v>60651</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C89" s="7">
         <v>8</v>
@@ -20339,7 +20345,7 @@
         <v>60033</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C90" s="7">
         <v>7</v>
@@ -20359,7 +20365,7 @@
         <v>10421</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C91" s="7">
         <v>90</v>
@@ -20394,12 +20400,12 @@
         <v>28228</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="61.5">
+    <row r="93" spans="1:6" ht="16.5">
       <c r="A93" s="7">
         <v>80001</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C93" s="7">
         <v>240</v>
@@ -20459,7 +20465,7 @@
         <v>10079</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C96" s="7">
         <v>82</v>
@@ -20519,7 +20525,7 @@
         <v>10541</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C99" s="7">
         <v>3</v>
@@ -20579,7 +20585,7 @@
         <v>19422</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C102" s="7">
         <v>62</v>
@@ -20599,7 +20605,7 @@
         <v>10542</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C103" s="7">
         <v>39</v>
@@ -20639,7 +20645,7 @@
         <v>11415</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C105" s="7">
         <v>36</v>
@@ -20699,7 +20705,7 @@
         <v>10491</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C108" s="7">
         <v>88</v>
@@ -20719,7 +20725,7 @@
         <v>10319</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C109" s="7">
         <v>5</v>
@@ -20739,7 +20745,7 @@
         <v>10459</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C110" s="7">
         <v>46</v>
@@ -20799,7 +20805,7 @@
         <v>12121</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C113" s="7">
         <v>1522</v>
@@ -20839,7 +20845,7 @@
         <v>10760</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -20919,7 +20925,7 @@
         <v>10425</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C119" s="7">
         <v>60</v>
@@ -20939,7 +20945,7 @@
         <v>19141</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C120" s="7">
         <v>15</v>
@@ -21059,7 +21065,7 @@
         <v>10570</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C126" s="7">
         <v>1288</v>
@@ -21099,7 +21105,7 @@
         <v>10343</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C128" s="7">
         <v>16</v>
@@ -21119,7 +21125,7 @@
         <v>10290</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C129" s="7">
         <v>118</v>
@@ -21139,7 +21145,7 @@
         <v>10593</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="7">
         <v>14</v>
@@ -21199,7 +21205,7 @@
         <v>11413</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C133" s="7">
         <v>20</v>
@@ -21219,7 +21225,7 @@
         <v>10300</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C134" s="7">
         <v>26</v>
@@ -21259,7 +21265,7 @@
         <v>11078</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C136" s="7">
         <v>3228</v>
@@ -21279,7 +21285,7 @@
         <v>11845</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C137" s="7">
         <v>6792</v>
@@ -21299,7 +21305,7 @@
         <v>10043</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C138" s="7">
         <v>12</v>
@@ -21319,7 +21325,7 @@
         <v>10338</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C139" s="7">
         <v>130</v>
@@ -21339,7 +21345,7 @@
         <v>10564</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C140" s="7">
         <v>4996</v>
@@ -21379,7 +21385,7 @@
         <v>89012</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C142" s="7">
         <v>20</v>
@@ -21399,7 +21405,7 @@
         <v>10385</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C143" s="7">
         <v>166</v>
@@ -21459,7 +21465,7 @@
         <v>19359</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C146" s="7">
         <v>64</v>
@@ -21479,7 +21485,7 @@
         <v>10140</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C147" s="7">
         <v>14</v>
@@ -21499,7 +21505,7 @@
         <v>10254</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C148" s="7">
         <v>127</v>
@@ -21519,7 +21525,7 @@
         <v>10700</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C149" s="7">
         <v>36</v>
@@ -21579,7 +21585,7 @@
         <v>10490</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C152" s="7">
         <v>34</v>
@@ -21619,7 +21625,7 @@
         <v>10110</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C154" s="7">
         <v>94</v>
@@ -21639,7 +21645,7 @@
         <v>10126</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C155" s="7">
         <v>41</v>
@@ -21679,7 +21685,7 @@
         <v>10184</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C157" s="7">
         <v>8</v>
@@ -21699,7 +21705,7 @@
         <v>10186</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C158" s="7">
         <v>150</v>
@@ -21719,7 +21725,7 @@
         <v>10212</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C159" s="7">
         <v>61</v>
@@ -21737,7 +21743,7 @@
         <v>10214</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C160" s="7">
         <v>121</v>
@@ -21795,7 +21801,7 @@
         <v>10224</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C163" s="7">
         <v>24</v>
@@ -21815,7 +21821,7 @@
         <v>10225</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C164" s="7">
         <v>24</v>
@@ -21835,7 +21841,7 @@
         <v>10264</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C165" s="7">
         <v>81</v>
@@ -21855,7 +21861,7 @@
         <v>10298</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C166" s="7">
         <v>80</v>
@@ -21875,7 +21881,7 @@
         <v>10366</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C167" s="7">
         <v>8</v>
@@ -21895,7 +21901,7 @@
         <v>10394</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C168" s="7">
         <v>52</v>
@@ -21915,7 +21921,7 @@
         <v>10404</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C169" s="7">
         <v>59</v>
@@ -21935,7 +21941,7 @@
         <v>10407</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C170" s="7">
         <v>100</v>
@@ -21955,7 +21961,7 @@
         <v>10427</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C171" s="7">
         <v>100</v>
@@ -21975,7 +21981,7 @@
         <v>10475</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C172" s="7">
         <v>94</v>
@@ -21995,7 +22001,7 @@
         <v>10534</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C173" s="7">
         <v>72</v>
@@ -22015,7 +22021,7 @@
         <v>10536</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C174" s="7">
         <v>161</v>
@@ -22035,7 +22041,7 @@
         <v>10537</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C175" s="7">
         <v>130</v>
@@ -22055,7 +22061,7 @@
         <v>10538</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C176" s="7">
         <v>94</v>
@@ -22075,7 +22081,7 @@
         <v>10555</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C177" s="7">
         <v>180</v>
@@ -22095,7 +22101,7 @@
         <v>10566</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C178" s="7">
         <v>1311</v>
@@ -22115,7 +22121,7 @@
         <v>10571</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C179" s="7">
         <v>688</v>
@@ -22135,7 +22141,7 @@
         <v>10572</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C180" s="7">
         <v>1299</v>
@@ -22155,7 +22161,7 @@
         <v>10616</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C181" s="7">
         <v>64</v>
@@ -22175,7 +22181,7 @@
         <v>10626</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C182" s="7">
         <v>10</v>
@@ -22215,7 +22221,7 @@
         <v>11414</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C184" s="7">
         <v>19</v>
@@ -22235,7 +22241,7 @@
         <v>19635</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C185" s="7">
         <v>48</v>
@@ -22255,7 +22261,7 @@
         <v>60145</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C186" s="7">
         <v>15</v>
@@ -22275,7 +22281,7 @@
         <v>60173</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C187" s="7">
         <v>10</v>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>院校代码</t>
   </si>
   <si>
-    <t>上海交通大学医学院</t>
-  </si>
-  <si>
     <t>华东政法大学</t>
   </si>
   <si>
@@ -1803,9 +1800,6 @@
     </r>
   </si>
   <si>
-    <t>复旦大学医学院</t>
-  </si>
-  <si>
     <r>
       <t>中国人民大学</t>
     </r>
@@ -1833,28 +1827,6 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>广东外语外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ó</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>大学</t>
     </r>
   </si>
   <si>
@@ -3089,6 +3061,15 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>上海交通大学医学</t>
+  </si>
+  <si>
+    <t>复旦大学医学</t>
+  </si>
+  <si>
+    <t>上海交通大学医</t>
   </si>
 </sst>
 </file>
@@ -3596,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
@@ -5972,7 +5953,7 @@
         <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C119" s="2">
         <v>246</v>
@@ -6212,7 +6193,7 @@
         <v>263</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C131" s="2">
         <v>408</v>
@@ -6397,8 +6378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6653,7 +6634,7 @@
         <v>19248</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -7793,7 +7774,7 @@
         <v>10276</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -7933,7 +7914,7 @@
         <v>80001</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C77" s="4">
         <v>246</v>
@@ -8153,7 +8134,7 @@
         <v>19213</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" s="4">
         <v>20</v>
@@ -8313,7 +8294,7 @@
         <v>10570</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C96" s="4">
         <v>310</v>
@@ -9087,7 +9068,7 @@
         <v>10700</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C135" s="4">
         <v>54</v>
@@ -9245,7 +9226,7 @@
         <v>19614</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C143" s="4">
         <v>20</v>
@@ -9270,8 +9251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9486,7 +9467,7 @@
         <v>19248</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -9646,7 +9627,7 @@
         <v>19002</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -9986,7 +9967,7 @@
         <v>10054</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C36" s="5">
         <v>72</v>
@@ -10466,7 +10447,7 @@
         <v>19013</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C60" s="5">
         <v>19</v>
@@ -10506,7 +10487,7 @@
         <v>10079</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" s="5">
         <v>67</v>
@@ -10566,7 +10547,7 @@
         <v>19213</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C65" s="5">
         <v>25</v>
@@ -10586,7 +10567,7 @@
         <v>10276</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C66" s="5">
         <v>27</v>
@@ -10786,7 +10767,7 @@
         <v>10491</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C76" s="5">
         <v>47</v>
@@ -10846,7 +10827,7 @@
         <v>10425</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" s="5">
         <v>40</v>
@@ -10926,7 +10907,7 @@
         <v>11415</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C83" s="5">
         <v>29</v>
@@ -10966,7 +10947,7 @@
         <v>10570</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C85" s="5">
         <v>208</v>
@@ -11026,7 +11007,7 @@
         <v>10269</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C88" s="5">
         <v>12</v>
@@ -11046,7 +11027,7 @@
         <v>80001</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C89" s="5">
         <v>242</v>
@@ -11146,7 +11127,7 @@
         <v>10366</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C94" s="5">
         <v>3</v>
@@ -11186,7 +11167,7 @@
         <v>19614</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C96" s="5">
         <v>20</v>
@@ -11266,7 +11247,7 @@
         <v>11413</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C100" s="5">
         <v>7</v>
@@ -12016,7 +11997,7 @@
         <v>10700</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C138" s="5">
         <v>42</v>
@@ -12094,7 +12075,7 @@
         <v>10755</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C142" s="5">
         <v>4</v>
@@ -12112,7 +12093,7 @@
         <v>11414</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C143" s="5">
         <v>16</v>
@@ -12172,7 +12153,7 @@
         <v>19359</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C146" s="5">
         <v>64</v>
@@ -12197,8 +12178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12225,10 +12206,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="11">
         <v>10003</v>
       </c>
@@ -12248,7 +12229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="11">
         <v>10001</v>
       </c>
@@ -12268,7 +12249,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="11">
         <v>19001</v>
       </c>
@@ -12288,7 +12269,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="11">
         <v>10246</v>
       </c>
@@ -12308,7 +12289,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="11">
         <v>10248</v>
       </c>
@@ -12328,12 +12309,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="11">
         <v>19248</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="C7" s="12">
         <v>8</v>
@@ -12348,7 +12329,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="11">
         <v>10335</v>
       </c>
@@ -12368,12 +12349,12 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="11">
         <v>19246</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="C9" s="12">
         <v>15</v>
@@ -12388,7 +12369,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="11">
         <v>10002</v>
       </c>
@@ -12408,7 +12389,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="11">
         <v>10358</v>
       </c>
@@ -12428,7 +12409,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="11">
         <v>10284</v>
       </c>
@@ -12448,7 +12429,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="11">
         <v>10247</v>
       </c>
@@ -12468,7 +12449,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="11">
         <v>10006</v>
       </c>
@@ -12488,7 +12469,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="11">
         <v>10055</v>
       </c>
@@ -12508,12 +12489,12 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="11">
         <v>19002</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C16" s="12">
         <v>6</v>
@@ -12528,7 +12509,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="11">
         <v>10272</v>
       </c>
@@ -12548,7 +12529,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="11">
         <v>10034</v>
       </c>
@@ -12568,7 +12549,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="11">
         <v>10036</v>
       </c>
@@ -12588,7 +12569,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="11">
         <v>10030</v>
       </c>
@@ -12608,7 +12589,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="11">
         <v>10053</v>
       </c>
@@ -12628,7 +12609,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="11">
         <v>10271</v>
       </c>
@@ -12648,7 +12629,7 @@
         <v>4868</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="11">
         <v>10558</v>
       </c>
@@ -12668,7 +12649,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="11">
         <v>10698</v>
       </c>
@@ -12688,7 +12669,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="11">
         <v>10013</v>
       </c>
@@ -12708,7 +12689,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="11">
         <v>10384</v>
       </c>
@@ -12728,7 +12709,7 @@
         <v>6777</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="11">
         <v>10486</v>
       </c>
@@ -12748,7 +12729,7 @@
         <v>7178</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="11">
         <v>10026</v>
       </c>
@@ -12768,7 +12749,7 @@
         <v>7497</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="11">
         <v>10286</v>
       </c>
@@ -12788,7 +12769,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="11">
         <v>10056</v>
       </c>
@@ -12808,7 +12789,7 @@
         <v>8421</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="11">
         <v>10213</v>
       </c>
@@ -12828,7 +12809,7 @@
         <v>9004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="11">
         <v>10561</v>
       </c>
@@ -12848,7 +12829,7 @@
         <v>9052</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="11">
         <v>10033</v>
       </c>
@@ -12868,7 +12849,7 @@
         <v>9143</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="11">
         <v>10487</v>
       </c>
@@ -12888,7 +12869,7 @@
         <v>9385</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="11">
         <v>10007</v>
       </c>
@@ -12908,7 +12889,7 @@
         <v>9832</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="11">
         <v>10141</v>
       </c>
@@ -12928,7 +12909,7 @@
         <v>11390</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="11">
         <v>10559</v>
       </c>
@@ -12948,12 +12929,12 @@
         <v>11843</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="11">
         <v>10269</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" s="12">
         <v>20</v>
@@ -12968,7 +12949,7 @@
         <v>12665</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="11">
         <v>10651</v>
       </c>
@@ -12988,7 +12969,7 @@
         <v>13048</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="11">
         <v>10533</v>
       </c>
@@ -13008,7 +12989,7 @@
         <v>13974</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="11">
         <v>10532</v>
       </c>
@@ -13028,7 +13009,7 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="11">
         <v>10287</v>
       </c>
@@ -13048,7 +13029,7 @@
         <v>14395</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="11">
         <v>10008</v>
       </c>
@@ -13068,7 +13049,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="11">
         <v>10614</v>
       </c>
@@ -13088,7 +13069,7 @@
         <v>14479</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="11">
         <v>10699</v>
       </c>
@@ -13108,7 +13089,7 @@
         <v>14545</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="45">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="11">
         <v>10520</v>
       </c>
@@ -13128,7 +13109,7 @@
         <v>14695</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="11">
         <v>10422</v>
       </c>
@@ -13148,7 +13129,7 @@
         <v>15693</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="11">
         <v>10610</v>
       </c>
@@ -13168,7 +13149,7 @@
         <v>15834</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="11">
         <v>10251</v>
       </c>
@@ -13188,7 +13169,7 @@
         <v>16041</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="11">
         <v>10611</v>
       </c>
@@ -13208,7 +13189,7 @@
         <v>16541</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="11">
         <v>10703</v>
       </c>
@@ -13228,7 +13209,7 @@
         <v>16639</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="11">
         <v>10288</v>
       </c>
@@ -13248,12 +13229,12 @@
         <v>16681</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="59.25">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="11">
         <v>19213</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="12">
         <v>30</v>
@@ -13268,7 +13249,7 @@
         <v>17062</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="11">
         <v>10004</v>
       </c>
@@ -13288,7 +13269,7 @@
         <v>17279</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30">
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="11">
         <v>10280</v>
       </c>
@@ -13308,12 +13289,12 @@
         <v>17408</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="45">
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="11">
         <v>11846</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="C56" s="12">
         <v>1821</v>
@@ -13328,7 +13309,7 @@
         <v>17668</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="11">
         <v>10183</v>
       </c>
@@ -13353,7 +13334,7 @@
         <v>80001</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C58" s="12">
         <v>242</v>
@@ -13368,7 +13349,7 @@
         <v>18412</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6" ht="15">
       <c r="A59" s="11">
         <v>10497</v>
       </c>
@@ -13388,7 +13369,7 @@
         <v>18663</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="45">
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="11">
         <v>10031</v>
       </c>
@@ -13408,7 +13389,7 @@
         <v>18670</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30">
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="11">
         <v>10019</v>
       </c>
@@ -13428,7 +13409,7 @@
         <v>19521</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="15">
       <c r="A62" s="11">
         <v>10005</v>
       </c>
@@ -13448,7 +13429,7 @@
         <v>20054</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30">
+    <row r="63" spans="1:6" ht="15">
       <c r="A63" s="11">
         <v>10386</v>
       </c>
@@ -13468,7 +13449,7 @@
         <v>20219</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30">
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="11">
         <v>10285</v>
       </c>
@@ -13488,7 +13469,7 @@
         <v>20487</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30">
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="11">
         <v>10613</v>
       </c>
@@ -13508,7 +13489,7 @@
         <v>21190</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30">
+    <row r="66" spans="1:6" ht="15">
       <c r="A66" s="11">
         <v>10423</v>
       </c>
@@ -13528,7 +13509,7 @@
         <v>21843</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="11">
         <v>10574</v>
       </c>
@@ -13548,12 +13529,12 @@
         <v>22242</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="11">
         <v>10276</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68" s="12">
         <v>34</v>
@@ -13568,7 +13549,7 @@
         <v>22447</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30">
+    <row r="69" spans="1:6" ht="15">
       <c r="A69" s="11">
         <v>10652</v>
       </c>
@@ -13588,7 +13569,7 @@
         <v>22561</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30">
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="11">
         <v>10255</v>
       </c>
@@ -13608,12 +13589,12 @@
         <v>22822</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="60">
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="11">
         <v>19614</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C71" s="12">
         <v>30</v>
@@ -13628,7 +13609,7 @@
         <v>22943</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30">
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="11">
         <v>10010</v>
       </c>
@@ -13648,7 +13629,7 @@
         <v>23362</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30">
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="11">
         <v>10145</v>
       </c>
@@ -13668,12 +13649,12 @@
         <v>23508</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30">
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="11">
         <v>10366</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C74" s="12">
         <v>8</v>
@@ -13688,7 +13669,7 @@
         <v>23805</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30">
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="11">
         <v>10052</v>
       </c>
@@ -13708,7 +13689,7 @@
         <v>24486</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30">
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="11">
         <v>10294</v>
       </c>
@@ -13728,12 +13709,12 @@
         <v>25049</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30">
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="11">
         <v>10590</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C77" s="12">
         <v>620</v>
@@ -13748,7 +13729,7 @@
         <v>25130</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30">
+    <row r="78" spans="1:6" ht="15">
       <c r="A78" s="11">
         <v>10216</v>
       </c>
@@ -13768,7 +13749,7 @@
         <v>25212</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:6" ht="15">
       <c r="A79" s="11">
         <v>10511</v>
       </c>
@@ -13788,7 +13769,7 @@
         <v>25396</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30">
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="11">
         <v>10598</v>
       </c>
@@ -13808,7 +13789,7 @@
         <v>25725</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="45">
+    <row r="81" spans="1:6" ht="15">
       <c r="A81" s="11">
         <v>10701</v>
       </c>
@@ -13828,7 +13809,7 @@
         <v>26199</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6" ht="15">
       <c r="A82" s="11">
         <v>10070</v>
       </c>
@@ -13848,7 +13829,7 @@
         <v>26286</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30">
+    <row r="83" spans="1:6" ht="15">
       <c r="A83" s="11">
         <v>10730</v>
       </c>
@@ -13868,7 +13849,7 @@
         <v>26321</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="45">
+    <row r="84" spans="1:6" ht="15">
       <c r="A84" s="11">
         <v>10724</v>
       </c>
@@ -13888,7 +13869,7 @@
         <v>26479</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="15">
       <c r="A85" s="11">
         <v>10316</v>
       </c>
@@ -13908,7 +13889,7 @@
         <v>26507</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="15">
       <c r="A86" s="11">
         <v>10173</v>
       </c>
@@ -13928,7 +13909,7 @@
         <v>26520</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30">
+    <row r="87" spans="1:6" ht="15">
       <c r="A87" s="11">
         <v>10542</v>
       </c>
@@ -13948,7 +13929,7 @@
         <v>26722</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30">
+    <row r="88" spans="1:6" ht="15">
       <c r="A88" s="11">
         <v>12121</v>
       </c>
@@ -13968,7 +13949,7 @@
         <v>26823</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="45">
+    <row r="89" spans="1:6" ht="15">
       <c r="A89" s="11">
         <v>10079</v>
       </c>
@@ -13988,7 +13969,7 @@
         <v>26956</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45">
+    <row r="90" spans="1:6" ht="15">
       <c r="A90" s="11">
         <v>19422</v>
       </c>
@@ -14008,7 +13989,7 @@
         <v>27034</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="45">
+    <row r="91" spans="1:6" ht="15">
       <c r="A91" s="11">
         <v>11414</v>
       </c>
@@ -14028,7 +14009,7 @@
         <v>27089</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30">
+    <row r="92" spans="1:6" ht="15">
       <c r="A92" s="11">
         <v>10295</v>
       </c>
@@ -14048,7 +14029,7 @@
         <v>27181</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="15">
       <c r="A93" s="11">
         <v>10252</v>
       </c>
@@ -14068,7 +14049,7 @@
         <v>27201</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="45">
+    <row r="94" spans="1:6" ht="15">
       <c r="A94" s="11">
         <v>10217</v>
       </c>
@@ -14088,7 +14069,7 @@
         <v>27213</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45">
+    <row r="95" spans="1:6" ht="15">
       <c r="A95" s="11">
         <v>10300</v>
       </c>
@@ -14108,7 +14089,7 @@
         <v>27613</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30">
+    <row r="96" spans="1:6" ht="15">
       <c r="A96" s="11">
         <v>10635</v>
       </c>
@@ -14128,7 +14109,7 @@
         <v>28065</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30">
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="11">
         <v>10159</v>
       </c>
@@ -14148,7 +14129,7 @@
         <v>28119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="60">
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="11">
         <v>19013</v>
       </c>
@@ -14168,7 +14149,7 @@
         <v>28237</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30">
+    <row r="99" spans="1:6" ht="15">
       <c r="A99" s="11">
         <v>10022</v>
       </c>
@@ -14188,12 +14169,12 @@
         <v>28470</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30">
+    <row r="100" spans="1:6" ht="15">
       <c r="A100" s="11">
         <v>10570</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C100" s="12">
         <v>441</v>
@@ -14208,7 +14189,7 @@
         <v>28802</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30">
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="11">
         <v>10697</v>
       </c>
@@ -14228,7 +14209,7 @@
         <v>29104</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30">
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="11">
         <v>10710</v>
       </c>
@@ -14248,7 +14229,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30">
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="11">
         <v>10359</v>
       </c>
@@ -14268,7 +14249,7 @@
         <v>29635</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="11">
         <v>10291</v>
       </c>
@@ -14288,7 +14269,7 @@
         <v>30620</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30">
+    <row r="105" spans="1:6" ht="15">
       <c r="A105" s="11">
         <v>10560</v>
       </c>
@@ -14308,7 +14289,7 @@
         <v>31117</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="45">
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="11">
         <v>11415</v>
       </c>
@@ -14328,7 +14309,7 @@
         <v>31160</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="15">
       <c r="A107" s="11">
         <v>10290</v>
       </c>
@@ -14348,7 +14329,7 @@
         <v>31855</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30">
+    <row r="108" spans="1:6" ht="15">
       <c r="A108" s="11">
         <v>10459</v>
       </c>
@@ -14368,7 +14349,7 @@
         <v>32048</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="45">
+    <row r="109" spans="1:6" ht="15">
       <c r="A109" s="11">
         <v>10226</v>
       </c>
@@ -14388,7 +14369,7 @@
         <v>33020</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30">
+    <row r="110" spans="1:6" ht="15">
       <c r="A110" s="11">
         <v>10357</v>
       </c>
@@ -14408,7 +14389,7 @@
         <v>33314</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="45">
+    <row r="111" spans="1:6" ht="15">
       <c r="A111" s="11">
         <v>11413</v>
       </c>
@@ -14428,12 +14409,12 @@
         <v>33507</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30">
+    <row r="112" spans="1:6" ht="15">
       <c r="A112" s="11">
         <v>10343</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C112" s="12">
         <v>15</v>
@@ -14448,7 +14429,7 @@
         <v>33929</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="45">
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="11">
         <v>10541</v>
       </c>
@@ -14468,7 +14449,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30">
+    <row r="114" spans="1:6" ht="15">
       <c r="A114" s="11">
         <v>10151</v>
       </c>
@@ -14488,7 +14469,7 @@
         <v>36644</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30">
+    <row r="115" spans="1:6" ht="15">
       <c r="A115" s="11">
         <v>10043</v>
       </c>
@@ -14508,7 +14489,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="45">
+    <row r="116" spans="1:6" ht="15">
       <c r="A116" s="11">
         <v>10054</v>
       </c>
@@ -14528,7 +14509,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30">
+    <row r="117" spans="1:6" ht="15">
       <c r="A117" s="11">
         <v>10080</v>
       </c>
@@ -14548,7 +14529,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="45">
+    <row r="118" spans="1:6" ht="15">
       <c r="A118" s="11">
         <v>10107</v>
       </c>
@@ -14568,7 +14549,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30">
+    <row r="119" spans="1:6" ht="15">
       <c r="A119" s="11">
         <v>10112</v>
       </c>
@@ -14588,7 +14569,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30">
+    <row r="120" spans="1:6" ht="15">
       <c r="A120" s="11">
         <v>10126</v>
       </c>
@@ -14606,7 +14587,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30">
+    <row r="121" spans="1:6" ht="15">
       <c r="A121" s="11">
         <v>10140</v>
       </c>
@@ -14626,7 +14607,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="45">
+    <row r="122" spans="1:6" ht="15">
       <c r="A122" s="11">
         <v>10147</v>
       </c>
@@ -14644,7 +14625,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30">
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="11">
         <v>10163</v>
       </c>
@@ -14664,7 +14645,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30">
+    <row r="124" spans="1:6" ht="15">
       <c r="A124" s="11">
         <v>10184</v>
       </c>
@@ -14684,7 +14665,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30">
+    <row r="125" spans="1:6" ht="15">
       <c r="A125" s="11">
         <v>10200</v>
       </c>
@@ -14704,7 +14685,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="30">
+    <row r="126" spans="1:6" ht="15">
       <c r="A126" s="11">
         <v>10220</v>
       </c>
@@ -14724,12 +14705,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30">
+    <row r="127" spans="1:6" ht="15">
       <c r="A127" s="11">
         <v>10224</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C127" s="12">
         <v>79</v>
@@ -14744,7 +14725,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30">
+    <row r="128" spans="1:6" ht="15">
       <c r="A128" s="11">
         <v>10225</v>
       </c>
@@ -14762,7 +14743,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30">
+    <row r="129" spans="1:6" ht="15">
       <c r="A129" s="11">
         <v>10293</v>
       </c>
@@ -14782,7 +14763,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30">
+    <row r="130" spans="1:6" ht="15">
       <c r="A130" s="11">
         <v>10299</v>
       </c>
@@ -14802,7 +14783,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30">
+    <row r="131" spans="1:6" ht="15">
       <c r="A131" s="11">
         <v>10307</v>
       </c>
@@ -14822,7 +14803,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30">
+    <row r="132" spans="1:6" ht="15">
       <c r="A132" s="11">
         <v>10385</v>
       </c>
@@ -14842,7 +14823,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30">
+    <row r="133" spans="1:6" ht="15">
       <c r="A133" s="11">
         <v>10403</v>
       </c>
@@ -14862,7 +14843,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="45">
+    <row r="134" spans="1:6" ht="15">
       <c r="A134" s="11">
         <v>10425</v>
       </c>
@@ -14882,7 +14863,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="45">
+    <row r="135" spans="1:6" ht="15">
       <c r="A135" s="11">
         <v>10491</v>
       </c>
@@ -14902,7 +14883,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30">
+    <row r="136" spans="1:6" ht="15">
       <c r="A136" s="11">
         <v>10504</v>
       </c>
@@ -14922,7 +14903,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30">
+    <row r="137" spans="1:6" ht="15">
       <c r="A137" s="11">
         <v>10530</v>
       </c>
@@ -14942,7 +14923,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30">
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="11">
         <v>10564</v>
       </c>
@@ -14962,7 +14943,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="45">
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="11">
         <v>10572</v>
       </c>
@@ -14982,7 +14963,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30">
+    <row r="140" spans="1:6" ht="15">
       <c r="A140" s="11">
         <v>10589</v>
       </c>
@@ -15002,7 +14983,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="30">
+    <row r="141" spans="1:6" ht="15">
       <c r="A141" s="11">
         <v>10593</v>
       </c>
@@ -15022,7 +15003,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30">
+    <row r="142" spans="1:6" ht="15">
       <c r="A142" s="11">
         <v>10626</v>
       </c>
@@ -15040,7 +15021,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30">
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="11">
         <v>10657</v>
       </c>
@@ -15060,12 +15041,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30">
+    <row r="144" spans="1:6" ht="15">
       <c r="A144" s="11">
         <v>10700</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C144" s="12">
         <v>45</v>
@@ -15080,7 +15061,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30">
+    <row r="145" spans="1:6" ht="15">
       <c r="A145" s="11">
         <v>10708</v>
       </c>
@@ -15098,7 +15079,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="45">
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="11">
         <v>10712</v>
       </c>
@@ -15118,7 +15099,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30">
+    <row r="147" spans="1:6" ht="15">
       <c r="A147" s="11">
         <v>10718</v>
       </c>
@@ -15138,12 +15119,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30">
+    <row r="148" spans="1:6" ht="15">
       <c r="A148" s="11">
         <v>10755</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C148" s="12">
         <v>4</v>
@@ -15156,12 +15137,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30">
+    <row r="149" spans="1:6" ht="15">
       <c r="A149" s="11">
         <v>11078</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C149" s="12">
         <v>767</v>
@@ -15176,12 +15157,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6" ht="15">
       <c r="A150" s="11">
         <v>11845</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C150" s="12">
         <v>4949</v>
@@ -15196,12 +15177,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="60">
+    <row r="151" spans="1:6" ht="15">
       <c r="A151" s="11">
         <v>19141</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C151" s="12">
         <v>13</v>
@@ -15216,7 +15197,7 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="45">
+    <row r="152" spans="1:6" ht="15">
       <c r="A152" s="11">
         <v>19145</v>
       </c>
@@ -15236,12 +15217,12 @@
         <v>40420</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="60">
+    <row r="153" spans="1:6" ht="15">
       <c r="A153" s="11">
         <v>19359</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C153" s="12">
         <v>80</v>
@@ -15266,8 +15247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15482,7 +15463,7 @@
         <v>19246</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="C11" s="15">
         <v>11</v>
@@ -15582,7 +15563,7 @@
         <v>19248</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -15762,7 +15743,7 @@
         <v>10269</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C25" s="15">
         <v>18</v>
@@ -16162,7 +16143,7 @@
         <v>80001</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C45" s="15">
         <v>242</v>
@@ -16302,7 +16283,7 @@
         <v>19614</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C52" s="15">
         <v>55</v>
@@ -16342,7 +16323,7 @@
         <v>19213</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C54" s="15">
         <v>35</v>
@@ -16362,7 +16343,7 @@
         <v>10276</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="15">
         <v>30</v>
@@ -16402,7 +16383,7 @@
         <v>10590</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C57" s="15">
         <v>1211</v>
@@ -16442,7 +16423,7 @@
         <v>11414</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C59" s="15">
         <v>17</v>
@@ -16602,7 +16583,7 @@
         <v>19013</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C67" s="15">
         <v>26</v>
@@ -16762,7 +16743,7 @@
         <v>10054</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C75" s="15">
         <v>86</v>
@@ -16782,7 +16763,7 @@
         <v>60384</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C76" s="15">
         <v>12</v>
@@ -16902,7 +16883,7 @@
         <v>11415</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C82" s="15">
         <v>35</v>
@@ -16942,7 +16923,7 @@
         <v>60652</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C84" s="15">
         <v>4</v>
@@ -16962,7 +16943,7 @@
         <v>11413</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C85" s="15">
         <v>17</v>
@@ -17002,7 +16983,7 @@
         <v>10343</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C87" s="15">
         <v>15</v>
@@ -17022,7 +17003,7 @@
         <v>10366</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C88" s="15">
         <v>8</v>
@@ -17042,7 +17023,7 @@
         <v>10491</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C89" s="15">
         <v>84</v>
@@ -17102,7 +17083,7 @@
         <v>10319</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C92" s="15">
         <v>2</v>
@@ -17242,7 +17223,7 @@
         <v>10421</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C99" s="15">
         <v>93</v>
@@ -17262,7 +17243,7 @@
         <v>10425</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C100" s="15">
         <v>55</v>
@@ -17422,7 +17403,7 @@
         <v>19141</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C108" s="15">
         <v>14</v>
@@ -17542,7 +17523,7 @@
         <v>11078</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C114" s="15">
         <v>1183</v>
@@ -17562,7 +17543,7 @@
         <v>10570</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C115" s="15">
         <v>1129</v>
@@ -17702,7 +17683,7 @@
         <v>11845</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C122" s="15">
         <v>7340</v>
@@ -17842,7 +17823,7 @@
         <v>10079</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C129" s="15">
         <v>80</v>
@@ -18074,7 +18055,7 @@
         <v>10224</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C141" s="15">
         <v>34</v>
@@ -18132,7 +18113,7 @@
         <v>10254</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C144" s="15">
         <v>134</v>
@@ -18152,7 +18133,7 @@
         <v>10264</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C145" s="15">
         <v>81</v>
@@ -18232,7 +18213,7 @@
         <v>10338</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C149" s="15">
         <v>130</v>
@@ -18252,7 +18233,7 @@
         <v>10490</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C150" s="15">
         <v>30</v>
@@ -18272,7 +18253,7 @@
         <v>10537</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C151" s="15">
         <v>101</v>
@@ -18290,7 +18271,7 @@
         <v>10538</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C152" s="15">
         <v>94</v>
@@ -18308,7 +18289,7 @@
         <v>10555</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C153" s="15">
         <v>100</v>
@@ -18388,7 +18369,7 @@
         <v>10700</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C157" s="15">
         <v>36</v>
@@ -18466,7 +18447,7 @@
         <v>10755</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C161" s="15">
         <v>2</v>
@@ -18484,7 +18465,7 @@
         <v>19002</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C162" s="15">
         <v>10</v>
@@ -18524,7 +18505,7 @@
         <v>19359</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C164" s="15">
         <v>64</v>
@@ -18549,8 +18530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18571,7 +18552,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -18640,7 +18621,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="7">
         <v>10248</v>
       </c>
@@ -18660,12 +18641,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="7">
         <v>19248</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -18680,12 +18661,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="7">
         <v>19246</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -18700,7 +18681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="7">
         <v>19001</v>
       </c>
@@ -18740,7 +18721,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="7">
         <v>10002</v>
       </c>
@@ -18760,7 +18741,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="7">
         <v>10358</v>
       </c>
@@ -18800,7 +18781,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="7">
         <v>10272</v>
       </c>
@@ -18840,7 +18821,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="7">
         <v>10006</v>
       </c>
@@ -18880,7 +18861,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="7">
         <v>10036</v>
       </c>
@@ -18900,12 +18881,12 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="7">
         <v>10027</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
@@ -18920,7 +18901,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="7">
         <v>10030</v>
       </c>
@@ -18940,7 +18921,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5">
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="7">
         <v>10034</v>
       </c>
@@ -18980,12 +18961,12 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="7">
         <v>19002</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C22" s="7">
         <v>10</v>
@@ -19020,12 +19001,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5">
+    <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="7">
         <v>10269</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C24" s="7">
         <v>25</v>
@@ -19060,12 +19041,12 @@
         <v>6838</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5">
+    <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="7">
         <v>19335</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -19080,7 +19061,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.5">
+    <row r="27" spans="1:6" ht="16.5">
       <c r="A27" s="7">
         <v>10698</v>
       </c>
@@ -19100,7 +19081,7 @@
         <v>6972</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5">
+    <row r="28" spans="1:6" ht="16.5">
       <c r="A28" s="7">
         <v>10271</v>
       </c>
@@ -19120,7 +19101,7 @@
         <v>7182</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.5">
+    <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="7">
         <v>10487</v>
       </c>
@@ -19160,7 +19141,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.5">
+    <row r="31" spans="1:6" ht="16.5">
       <c r="A31" s="7">
         <v>10053</v>
       </c>
@@ -19180,7 +19161,7 @@
         <v>7930</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.5">
+    <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="7">
         <v>10561</v>
       </c>
@@ -19200,7 +19181,7 @@
         <v>8845</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5">
+    <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="7">
         <v>10007</v>
       </c>
@@ -19220,7 +19201,7 @@
         <v>8936</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.5">
+    <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="7">
         <v>10651</v>
       </c>
@@ -19260,7 +19241,7 @@
         <v>9347</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.5">
+    <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="7">
         <v>10033</v>
       </c>
@@ -19280,7 +19261,7 @@
         <v>9921</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5">
+    <row r="37" spans="1:6" ht="16.5">
       <c r="A37" s="7">
         <v>10213</v>
       </c>
@@ -19320,7 +19301,7 @@
         <v>10464</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.5">
+    <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="7">
         <v>10614</v>
       </c>
@@ -19380,7 +19361,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.5">
+    <row r="42" spans="1:6" ht="16.5">
       <c r="A42" s="7">
         <v>10251</v>
       </c>
@@ -19400,7 +19381,7 @@
         <v>12327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.5">
+    <row r="43" spans="1:6" ht="16.5">
       <c r="A43" s="7">
         <v>10141</v>
       </c>
@@ -19420,7 +19401,7 @@
         <v>12773</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.5">
+    <row r="44" spans="1:6" ht="16.5">
       <c r="A44" s="7">
         <v>10013</v>
       </c>
@@ -19480,7 +19461,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.5">
+    <row r="47" spans="1:6" ht="16.5">
       <c r="A47" s="7">
         <v>10520</v>
       </c>
@@ -19500,7 +19481,7 @@
         <v>13739</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.5">
+    <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="7">
         <v>10008</v>
       </c>
@@ -19520,7 +19501,7 @@
         <v>13927</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.5">
+    <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="7">
         <v>10699</v>
       </c>
@@ -19540,7 +19521,7 @@
         <v>14195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.5">
+    <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="7">
         <v>10004</v>
       </c>
@@ -19560,7 +19541,7 @@
         <v>14328</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.5">
+    <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="7">
         <v>10019</v>
       </c>
@@ -19600,7 +19581,7 @@
         <v>14393</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.5">
+    <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="7">
         <v>10287</v>
       </c>
@@ -19620,12 +19601,12 @@
         <v>14614</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.5">
+    <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="7">
         <v>10276</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" s="7">
         <v>16</v>
@@ -19640,7 +19621,7 @@
         <v>15431</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.5">
+    <row r="55" spans="1:6" ht="16.5">
       <c r="A55" s="7">
         <v>10288</v>
       </c>
@@ -19680,12 +19661,12 @@
         <v>16371</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="47.25">
+    <row r="57" spans="1:6" ht="16.5">
       <c r="A57" s="7">
         <v>19614</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C57" s="7">
         <v>55</v>
@@ -19700,7 +19681,7 @@
         <v>16462</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.5">
+    <row r="58" spans="1:6" ht="16.5">
       <c r="A58" s="7">
         <v>10497</v>
       </c>
@@ -19720,12 +19701,12 @@
         <v>17939</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="61.5">
+    <row r="59" spans="1:6" ht="16.5">
       <c r="A59" s="7">
         <v>60384</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C59" s="7">
         <v>16</v>
@@ -19740,7 +19721,7 @@
         <v>18074</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.5">
+    <row r="60" spans="1:6" ht="16.5">
       <c r="A60" s="7">
         <v>10701</v>
       </c>
@@ -19760,7 +19741,7 @@
         <v>18201</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.5">
+    <row r="61" spans="1:6" ht="16.5">
       <c r="A61" s="7">
         <v>10652</v>
       </c>
@@ -19780,12 +19761,12 @@
         <v>18321</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="47.25">
+    <row r="62" spans="1:6" ht="16.5">
       <c r="A62" s="7">
         <v>10054</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C62" s="7">
         <v>87</v>
@@ -19820,7 +19801,7 @@
         <v>19053</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.5">
+    <row r="64" spans="1:6" ht="16.5">
       <c r="A64" s="7">
         <v>10613</v>
       </c>
@@ -19865,7 +19846,7 @@
         <v>10590</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C66" s="7">
         <v>2017</v>
@@ -19880,12 +19861,12 @@
         <v>19532</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="47.25">
+    <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="7">
         <v>19213</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C67" s="7">
         <v>42</v>
@@ -19900,12 +19881,12 @@
         <v>19560</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="61.5">
+    <row r="68" spans="1:6" ht="33">
       <c r="A68" s="7">
         <v>60652</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
@@ -19960,7 +19941,7 @@
         <v>20863</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.5">
+    <row r="71" spans="1:6" ht="16.5">
       <c r="A71" s="7">
         <v>10316</v>
       </c>
@@ -19980,7 +19961,7 @@
         <v>21301</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.5">
+    <row r="72" spans="1:6" ht="16.5">
       <c r="A72" s="7">
         <v>10173</v>
       </c>
@@ -20000,7 +19981,7 @@
         <v>21436</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.5">
+    <row r="73" spans="1:6" ht="16.5">
       <c r="A73" s="7">
         <v>10423</v>
       </c>
@@ -20020,7 +20001,7 @@
         <v>21781</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.5">
+    <row r="74" spans="1:6" ht="16.5">
       <c r="A74" s="7">
         <v>10052</v>
       </c>
@@ -20040,7 +20021,7 @@
         <v>22102</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="42.75">
+    <row r="75" spans="1:6" ht="16.5">
       <c r="A75" s="7">
         <v>10031</v>
       </c>
@@ -20060,7 +20041,7 @@
         <v>22372</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.5">
+    <row r="76" spans="1:6" ht="16.5">
       <c r="A76" s="7">
         <v>11846</v>
       </c>
@@ -20080,7 +20061,7 @@
         <v>22426</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.5">
+    <row r="77" spans="1:6" ht="16.5">
       <c r="A77" s="7">
         <v>10070</v>
       </c>
@@ -20100,7 +20081,7 @@
         <v>23874</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5">
+    <row r="78" spans="1:6" ht="16.5">
       <c r="A78" s="7">
         <v>10026</v>
       </c>
@@ -20120,7 +20101,7 @@
         <v>24215</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.5">
+    <row r="79" spans="1:6" ht="16.5">
       <c r="A79" s="7">
         <v>10574</v>
       </c>
@@ -20140,12 +20121,12 @@
         <v>24516</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="47.25">
+    <row r="80" spans="1:6" ht="16.5">
       <c r="A80" s="7">
         <v>19013</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C80" s="7">
         <v>28</v>
@@ -20160,7 +20141,7 @@
         <v>24551</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5">
+    <row r="81" spans="1:6" ht="16.5">
       <c r="A81" s="7">
         <v>10010</v>
       </c>
@@ -20180,7 +20161,7 @@
         <v>24603</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.5">
+    <row r="82" spans="1:6" ht="16.5">
       <c r="A82" s="7">
         <v>10252</v>
       </c>
@@ -20240,7 +20221,7 @@
         <v>25137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.5">
+    <row r="85" spans="1:6" ht="16.5">
       <c r="A85" s="7">
         <v>10511</v>
       </c>
@@ -20320,12 +20301,12 @@
         <v>27205</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="61.5">
+    <row r="89" spans="1:6" ht="33">
       <c r="A89" s="7">
         <v>60651</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C89" s="7">
         <v>8</v>
@@ -20340,12 +20321,12 @@
         <v>27364</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="61.5">
+    <row r="90" spans="1:6" ht="33">
       <c r="A90" s="7">
         <v>60033</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C90" s="7">
         <v>7</v>
@@ -20360,12 +20341,12 @@
         <v>27480</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.5">
+    <row r="91" spans="1:6" ht="16.5">
       <c r="A91" s="7">
         <v>10421</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C91" s="7">
         <v>90</v>
@@ -20380,7 +20361,7 @@
         <v>27812</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.5">
+    <row r="92" spans="1:6" ht="16.5">
       <c r="A92" s="7">
         <v>10359</v>
       </c>
@@ -20405,7 +20386,7 @@
         <v>80001</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C93" s="7">
         <v>240</v>
@@ -20420,7 +20401,7 @@
         <v>28249</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.5">
+    <row r="94" spans="1:6" ht="16.5">
       <c r="A94" s="7">
         <v>10217</v>
       </c>
@@ -20460,12 +20441,12 @@
         <v>28511</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="47.25">
+    <row r="96" spans="1:6" ht="16.5">
       <c r="A96" s="7">
         <v>10079</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C96" s="7">
         <v>82</v>
@@ -20480,7 +20461,7 @@
         <v>28571</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.5">
+    <row r="97" spans="1:6" ht="16.5">
       <c r="A97" s="7">
         <v>10022</v>
       </c>
@@ -20500,7 +20481,7 @@
         <v>29057</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.5">
+    <row r="98" spans="1:6" ht="16.5">
       <c r="A98" s="7">
         <v>10159</v>
       </c>
@@ -20520,7 +20501,7 @@
         <v>29865</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.5">
+    <row r="99" spans="1:6" ht="16.5">
       <c r="A99" s="7">
         <v>10541</v>
       </c>
@@ -20540,7 +20521,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.5">
+    <row r="100" spans="1:6" ht="16.5">
       <c r="A100" s="7">
         <v>10293</v>
       </c>
@@ -20580,7 +20561,7 @@
         <v>30675</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="28.5">
+    <row r="102" spans="1:6" ht="16.5">
       <c r="A102" s="7">
         <v>19422</v>
       </c>
@@ -20600,7 +20581,7 @@
         <v>30960</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.5">
+    <row r="103" spans="1:6" ht="16.5">
       <c r="A103" s="7">
         <v>10542</v>
       </c>
@@ -20640,12 +20621,12 @@
         <v>31370</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="47.25">
+    <row r="105" spans="1:6" ht="16.5">
       <c r="A105" s="7">
         <v>11415</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C105" s="7">
         <v>36</v>
@@ -20660,7 +20641,7 @@
         <v>31508</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="28.5">
+    <row r="106" spans="1:6" ht="16.5">
       <c r="A106" s="7">
         <v>10724</v>
       </c>
@@ -20680,7 +20661,7 @@
         <v>31659</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="28.5">
+    <row r="107" spans="1:6" ht="16.5">
       <c r="A107" s="7">
         <v>10005</v>
       </c>
@@ -20700,12 +20681,12 @@
         <v>31867</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="47.25">
+    <row r="108" spans="1:6" ht="16.5">
       <c r="A108" s="7">
         <v>10491</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C108" s="7">
         <v>88</v>
@@ -20720,12 +20701,12 @@
         <v>32359</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.5">
+    <row r="109" spans="1:6" ht="16.5">
       <c r="A109" s="7">
         <v>10319</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C109" s="7">
         <v>5</v>
@@ -20780,7 +20761,7 @@
         <v>34909</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="28.5">
+    <row r="112" spans="1:6" ht="16.5">
       <c r="A112" s="7">
         <v>10703</v>
       </c>
@@ -20800,7 +20781,7 @@
         <v>35464</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="28.5">
+    <row r="113" spans="1:6" ht="16.5">
       <c r="A113" s="7">
         <v>12121</v>
       </c>
@@ -20820,7 +20801,7 @@
         <v>35527</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="28.5">
+    <row r="114" spans="1:6" ht="16.5">
       <c r="A114" s="7">
         <v>10080</v>
       </c>
@@ -20840,12 +20821,12 @@
         <v>36125</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="28.5">
+    <row r="115" spans="1:6" ht="16.5">
       <c r="A115" s="7">
         <v>10760</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -20880,7 +20861,7 @@
         <v>37528</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.5">
+    <row r="117" spans="1:6" ht="16.5">
       <c r="A117" s="7">
         <v>10504</v>
       </c>
@@ -20900,7 +20881,7 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="28.5">
+    <row r="118" spans="1:6" ht="16.5">
       <c r="A118" s="7">
         <v>10712</v>
       </c>
@@ -20920,12 +20901,12 @@
         <v>40075</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="47.25">
+    <row r="119" spans="1:6" ht="16.5">
       <c r="A119" s="7">
         <v>10425</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C119" s="7">
         <v>60</v>
@@ -20940,12 +20921,12 @@
         <v>40128</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="47.25">
+    <row r="120" spans="1:6" ht="16.5">
       <c r="A120" s="7">
         <v>19141</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C120" s="7">
         <v>15</v>
@@ -20960,7 +20941,7 @@
         <v>40289</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="28.5">
+    <row r="121" spans="1:6" ht="16.5">
       <c r="A121" s="7">
         <v>10200</v>
       </c>
@@ -20980,7 +20961,7 @@
         <v>40295</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="28.5">
+    <row r="122" spans="1:6" ht="16.5">
       <c r="A122" s="7">
         <v>10598</v>
       </c>
@@ -21000,7 +20981,7 @@
         <v>40446</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="28.5">
+    <row r="123" spans="1:6" ht="16.5">
       <c r="A123" s="7">
         <v>10151</v>
       </c>
@@ -21020,7 +21001,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="28.5">
+    <row r="124" spans="1:6" ht="16.5">
       <c r="A124" s="7">
         <v>10307</v>
       </c>
@@ -21040,7 +21021,7 @@
         <v>42267</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="28.5">
+    <row r="125" spans="1:6" ht="16.5">
       <c r="A125" s="7">
         <v>10291</v>
       </c>
@@ -21060,12 +21041,12 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="28.5">
+    <row r="126" spans="1:6" ht="16.5">
       <c r="A126" s="7">
         <v>10570</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C126" s="7">
         <v>1288</v>
@@ -21100,12 +21081,12 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.5">
+    <row r="128" spans="1:6" ht="16.5">
       <c r="A128" s="7">
         <v>10343</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C128" s="7">
         <v>16</v>
@@ -21120,7 +21101,7 @@
         <v>43380</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="28.5">
+    <row r="129" spans="1:6" ht="16.5">
       <c r="A129" s="7">
         <v>10290</v>
       </c>
@@ -21180,7 +21161,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="28.5">
+    <row r="132" spans="1:6" ht="16.5">
       <c r="A132" s="7">
         <v>10163</v>
       </c>
@@ -21200,12 +21181,12 @@
         <v>44161</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="47.25">
+    <row r="133" spans="1:6" ht="16.5">
       <c r="A133" s="7">
         <v>11413</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C133" s="7">
         <v>20</v>
@@ -21220,7 +21201,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="28.5">
+    <row r="134" spans="1:6" ht="16.5">
       <c r="A134" s="7">
         <v>10300</v>
       </c>
@@ -21265,7 +21246,7 @@
         <v>11078</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C136" s="7">
         <v>3228</v>
@@ -21280,12 +21261,12 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="28.5">
+    <row r="137" spans="1:6" ht="16.5">
       <c r="A137" s="7">
         <v>11845</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C137" s="7">
         <v>6792</v>
@@ -21300,7 +21281,7 @@
         <v>45811</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="28.5">
+    <row r="138" spans="1:6" ht="16.5">
       <c r="A138" s="7">
         <v>10043</v>
       </c>
@@ -21320,12 +21301,12 @@
         <v>46701</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="28.5">
+    <row r="139" spans="1:6" ht="16.5">
       <c r="A139" s="7">
         <v>10338</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C139" s="7">
         <v>130</v>
@@ -21340,7 +21321,7 @@
         <v>46796</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28.5">
+    <row r="140" spans="1:6" ht="16.5">
       <c r="A140" s="7">
         <v>10564</v>
       </c>
@@ -21380,12 +21361,12 @@
         <v>47001</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="61.5">
+    <row r="142" spans="1:6" ht="33">
       <c r="A142" s="7">
         <v>89012</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C142" s="7">
         <v>20</v>
@@ -21420,7 +21401,7 @@
         <v>47449</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="28.5">
+    <row r="144" spans="1:6" ht="16.5">
       <c r="A144" s="7">
         <v>10112</v>
       </c>
@@ -21440,7 +21421,7 @@
         <v>48107</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="28.5">
+    <row r="145" spans="1:6" ht="16.5">
       <c r="A145" s="7">
         <v>10718</v>
       </c>
@@ -21460,12 +21441,12 @@
         <v>48352</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="47.25">
+    <row r="146" spans="1:6" ht="16.5">
       <c r="A146" s="7">
         <v>19359</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C146" s="7">
         <v>64</v>
@@ -21500,12 +21481,12 @@
         <v>49276</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28.5">
+    <row r="148" spans="1:6" ht="16.5">
       <c r="A148" s="7">
         <v>10254</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C148" s="7">
         <v>127</v>
@@ -21520,12 +21501,12 @@
         <v>50373</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="28.5">
+    <row r="149" spans="1:6" ht="16.5">
       <c r="A149" s="7">
         <v>10700</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C149" s="7">
         <v>36</v>
@@ -21540,7 +21521,7 @@
         <v>50470</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="42.75">
+    <row r="150" spans="1:6" ht="16.5">
       <c r="A150" s="7">
         <v>19145</v>
       </c>
@@ -21560,7 +21541,7 @@
         <v>50561</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="28.5">
+    <row r="151" spans="1:6" ht="16.5">
       <c r="A151" s="7">
         <v>10226</v>
       </c>
@@ -21580,12 +21561,12 @@
         <v>50691</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="28.5">
+    <row r="152" spans="1:6" ht="16.5">
       <c r="A152" s="7">
         <v>10490</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C152" s="7">
         <v>34</v>
@@ -21600,7 +21581,7 @@
         <v>50820</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="28.5">
+    <row r="153" spans="1:6" ht="16.5">
       <c r="A153" s="7">
         <v>10107</v>
       </c>
@@ -21625,7 +21606,7 @@
         <v>10110</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C154" s="7">
         <v>94</v>
@@ -21640,7 +21621,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="28.5">
+    <row r="155" spans="1:6" ht="16.5">
       <c r="A155" s="7">
         <v>10126</v>
       </c>
@@ -21660,7 +21641,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="28.5">
+    <row r="156" spans="1:6" ht="16.5">
       <c r="A156" s="7">
         <v>10147</v>
       </c>
@@ -21700,12 +21681,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="28.5">
+    <row r="158" spans="1:6" ht="16.5">
       <c r="A158" s="7">
         <v>10186</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C158" s="7">
         <v>150</v>
@@ -21720,12 +21701,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="28.5">
+    <row r="159" spans="1:6" ht="16.5">
       <c r="A159" s="7">
         <v>10212</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C159" s="7">
         <v>61</v>
@@ -21738,12 +21719,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="28.5">
+    <row r="160" spans="1:6" ht="16.5">
       <c r="A160" s="7">
         <v>10214</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C160" s="7">
         <v>121</v>
@@ -21778,7 +21759,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="28.5">
+    <row r="162" spans="1:6" ht="16.5">
       <c r="A162" s="7">
         <v>10220</v>
       </c>
@@ -21796,12 +21777,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="28.5">
+    <row r="163" spans="1:6" ht="16.5">
       <c r="A163" s="7">
         <v>10224</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C163" s="7">
         <v>24</v>
@@ -21816,7 +21797,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="28.5">
+    <row r="164" spans="1:6" ht="16.5">
       <c r="A164" s="7">
         <v>10225</v>
       </c>
@@ -21836,12 +21817,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="28.5">
+    <row r="165" spans="1:6" ht="16.5">
       <c r="A165" s="7">
         <v>10264</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C165" s="7">
         <v>81</v>
@@ -21856,12 +21837,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="28.5">
+    <row r="166" spans="1:6" ht="16.5">
       <c r="A166" s="7">
         <v>10298</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C166" s="7">
         <v>80</v>
@@ -21876,12 +21857,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="28.5">
+    <row r="167" spans="1:6" ht="16.5">
       <c r="A167" s="7">
         <v>10366</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C167" s="7">
         <v>8</v>
@@ -21896,12 +21877,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="28.5">
+    <row r="168" spans="1:6" ht="16.5">
       <c r="A168" s="7">
         <v>10394</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C168" s="7">
         <v>52</v>
@@ -21916,12 +21897,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="28.5">
+    <row r="169" spans="1:6" ht="16.5">
       <c r="A169" s="7">
         <v>10404</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C169" s="7">
         <v>59</v>
@@ -21936,12 +21917,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28.5">
+    <row r="170" spans="1:6" ht="16.5">
       <c r="A170" s="7">
         <v>10407</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C170" s="7">
         <v>100</v>
@@ -21961,7 +21942,7 @@
         <v>10427</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C171" s="7">
         <v>100</v>
@@ -21981,7 +21962,7 @@
         <v>10475</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C172" s="7">
         <v>94</v>
@@ -21996,12 +21977,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="28.5">
+    <row r="173" spans="1:6" ht="16.5">
       <c r="A173" s="7">
         <v>10534</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C173" s="7">
         <v>72</v>
@@ -22016,12 +21997,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="28.5">
+    <row r="174" spans="1:6" ht="16.5">
       <c r="A174" s="7">
         <v>10536</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C174" s="7">
         <v>161</v>
@@ -22036,12 +22017,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="28.5">
+    <row r="175" spans="1:6" ht="16.5">
       <c r="A175" s="7">
         <v>10537</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C175" s="7">
         <v>130</v>
@@ -22056,12 +22037,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="28.5">
+    <row r="176" spans="1:6" ht="16.5">
       <c r="A176" s="7">
         <v>10538</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C176" s="7">
         <v>94</v>
@@ -22081,7 +22062,7 @@
         <v>10555</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C177" s="7">
         <v>180</v>
@@ -22096,12 +22077,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="28.5">
+    <row r="178" spans="1:6" ht="16.5">
       <c r="A178" s="7">
         <v>10566</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C178" s="7">
         <v>1311</v>
@@ -22116,12 +22097,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="28.5">
+    <row r="179" spans="1:6" ht="16.5">
       <c r="A179" s="7">
         <v>10571</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C179" s="7">
         <v>688</v>
@@ -22136,7 +22117,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="28.5">
+    <row r="180" spans="1:6" ht="16.5">
       <c r="A180" s="7">
         <v>10572</v>
       </c>
@@ -22156,12 +22137,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="28.5">
+    <row r="181" spans="1:6" ht="16.5">
       <c r="A181" s="7">
         <v>10616</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="7">
         <v>64</v>
@@ -22176,7 +22157,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="28.5">
+    <row r="182" spans="1:6" ht="16.5">
       <c r="A182" s="7">
         <v>10626</v>
       </c>
@@ -22196,7 +22177,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="28.5">
+    <row r="183" spans="1:6" ht="16.5">
       <c r="A183" s="7">
         <v>10708</v>
       </c>
@@ -22216,12 +22197,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="47.25">
+    <row r="184" spans="1:6" ht="16.5">
       <c r="A184" s="7">
         <v>11414</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C184" s="7">
         <v>19</v>
@@ -22236,12 +22217,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="47.25">
+    <row r="185" spans="1:6" ht="16.5">
       <c r="A185" s="7">
         <v>19635</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C185" s="7">
         <v>48</v>
@@ -22256,12 +22237,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="61.5">
+    <row r="186" spans="1:6" ht="16.5">
       <c r="A186" s="7">
         <v>60145</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C186" s="7">
         <v>15</v>
@@ -22276,12 +22257,12 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="61.5">
+    <row r="187" spans="1:6" ht="33">
       <c r="A187" s="7">
         <v>60173</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C187" s="7">
         <v>10</v>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -2423,9 +2423,6 @@
     </r>
   </si>
   <si>
-    <t>浙江大学医学院</t>
-  </si>
-  <si>
     <r>
       <t>电子科技大学</t>
     </r>
@@ -3070,6 +3067,9 @@
   </si>
   <si>
     <t>上海交通大学医</t>
+  </si>
+  <si>
+    <t>浙江大学医学</t>
   </si>
 </sst>
 </file>
@@ -3577,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
@@ -5953,7 +5953,7 @@
         <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C119" s="2">
         <v>246</v>
@@ -6378,7 +6378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6634,7 +6634,7 @@
         <v>19248</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -7914,7 +7914,7 @@
         <v>80001</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C77" s="4">
         <v>246</v>
@@ -9251,7 +9251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -9467,7 +9467,7 @@
         <v>19248</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -11027,7 +11027,7 @@
         <v>80001</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C89" s="5">
         <v>242</v>
@@ -12314,7 +12314,7 @@
         <v>19248</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="12">
         <v>8</v>
@@ -12354,7 +12354,7 @@
         <v>19246</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="12">
         <v>15</v>
@@ -13334,7 +13334,7 @@
         <v>80001</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C58" s="12">
         <v>242</v>
@@ -15463,7 +15463,7 @@
         <v>19246</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="15">
         <v>11</v>
@@ -15563,7 +15563,7 @@
         <v>19248</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -16143,7 +16143,7 @@
         <v>80001</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C45" s="15">
         <v>242</v>
@@ -18530,8 +18530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18646,7 +18646,7 @@
         <v>19248</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -18666,7 +18666,7 @@
         <v>19246</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -19046,7 +19046,7 @@
         <v>19335</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -19666,7 +19666,7 @@
         <v>19614</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C57" s="7">
         <v>55</v>
@@ -19706,7 +19706,7 @@
         <v>60384</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C59" s="7">
         <v>16</v>
@@ -19766,7 +19766,7 @@
         <v>10054</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C62" s="7">
         <v>87</v>
@@ -19866,7 +19866,7 @@
         <v>19213</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C67" s="7">
         <v>42</v>
@@ -19886,7 +19886,7 @@
         <v>60652</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C68" s="7">
         <v>4</v>
@@ -20126,7 +20126,7 @@
         <v>19013</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C80" s="7">
         <v>28</v>
@@ -20306,7 +20306,7 @@
         <v>60651</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C89" s="7">
         <v>8</v>
@@ -20326,7 +20326,7 @@
         <v>60033</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C90" s="7">
         <v>7</v>
@@ -20386,7 +20386,7 @@
         <v>80001</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C93" s="7">
         <v>240</v>
@@ -20446,7 +20446,7 @@
         <v>10079</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C96" s="7">
         <v>82</v>
@@ -20626,7 +20626,7 @@
         <v>11415</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C105" s="7">
         <v>36</v>
@@ -20686,7 +20686,7 @@
         <v>10491</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C108" s="7">
         <v>88</v>
@@ -20826,7 +20826,7 @@
         <v>10760</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -20906,7 +20906,7 @@
         <v>10425</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C119" s="7">
         <v>60</v>
@@ -20926,7 +20926,7 @@
         <v>19141</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C120" s="7">
         <v>15</v>
@@ -21186,7 +21186,7 @@
         <v>11413</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C133" s="7">
         <v>20</v>
@@ -21366,7 +21366,7 @@
         <v>89012</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C142" s="7">
         <v>20</v>
@@ -21446,7 +21446,7 @@
         <v>19359</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C146" s="7">
         <v>64</v>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -3577,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
@@ -6378,8 +6378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8542,7 +8542,9 @@
       <c r="D108" s="4">
         <v>0</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4">
+        <v>568</v>
+      </c>
       <c r="F108" s="4">
         <v>30392</v>
       </c>
@@ -8600,7 +8602,9 @@
       <c r="D111" s="4">
         <v>0</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4">
+        <v>568</v>
+      </c>
       <c r="F111" s="4">
         <v>30392</v>
       </c>
@@ -8658,7 +8662,9 @@
       <c r="D114" s="4">
         <v>0</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="4">
+        <v>568</v>
+      </c>
       <c r="F114" s="4">
         <v>30392</v>
       </c>
@@ -9096,7 +9102,9 @@
       <c r="D136" s="4">
         <v>0</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="4">
+        <v>568</v>
+      </c>
       <c r="F136" s="4">
         <v>30392</v>
       </c>
@@ -9251,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11475,7 +11483,9 @@
       <c r="D111" s="5">
         <v>0</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5">
+        <v>585</v>
+      </c>
       <c r="F111" s="5">
         <v>29207</v>
       </c>
@@ -11493,7 +11503,9 @@
       <c r="D112" s="5">
         <v>0</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5">
+        <v>585</v>
+      </c>
       <c r="F112" s="5">
         <v>29207</v>
       </c>
@@ -11531,7 +11543,9 @@
       <c r="D114" s="5">
         <v>0</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5">
+        <v>585</v>
+      </c>
       <c r="F114" s="5">
         <v>29207</v>
       </c>
@@ -11589,7 +11603,9 @@
       <c r="D117" s="5">
         <v>0</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5">
+        <v>585</v>
+      </c>
       <c r="F117" s="5">
         <v>29207</v>
       </c>
@@ -11607,7 +11623,9 @@
       <c r="D118" s="5">
         <v>0</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5">
+        <v>585</v>
+      </c>
       <c r="F118" s="5">
         <v>29207</v>
       </c>
@@ -12025,7 +12043,9 @@
       <c r="D139" s="5">
         <v>0</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5">
+        <v>585</v>
+      </c>
       <c r="F139" s="5">
         <v>29207</v>
       </c>
@@ -12083,7 +12103,9 @@
       <c r="D142" s="5">
         <v>0</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5">
+        <v>585</v>
+      </c>
       <c r="F142" s="5">
         <v>29207</v>
       </c>
@@ -12178,8 +12200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14582,7 +14604,9 @@
       <c r="D120" s="12">
         <v>0</v>
       </c>
-      <c r="E120" s="13"/>
+      <c r="E120" s="12">
+        <v>574</v>
+      </c>
       <c r="F120" s="13">
         <v>40420</v>
       </c>
@@ -14620,7 +14644,9 @@
       <c r="D122" s="12">
         <v>0</v>
       </c>
-      <c r="E122" s="13"/>
+      <c r="E122" s="12">
+        <v>574</v>
+      </c>
       <c r="F122" s="13">
         <v>40420</v>
       </c>
@@ -14738,7 +14764,9 @@
       <c r="D128" s="12">
         <v>0</v>
       </c>
-      <c r="E128" s="13"/>
+      <c r="E128" s="12">
+        <v>574</v>
+      </c>
       <c r="F128" s="13">
         <v>40420</v>
       </c>
@@ -15016,7 +15044,9 @@
       <c r="D142" s="12">
         <v>0</v>
       </c>
-      <c r="E142" s="13"/>
+      <c r="E142" s="12">
+        <v>574</v>
+      </c>
       <c r="F142" s="13">
         <v>40420</v>
       </c>
@@ -15074,7 +15104,9 @@
       <c r="D145" s="12">
         <v>0</v>
       </c>
-      <c r="E145" s="13"/>
+      <c r="E145" s="12">
+        <v>574</v>
+      </c>
       <c r="F145" s="13">
         <v>40420</v>
       </c>
@@ -15132,7 +15164,9 @@
       <c r="D148" s="12">
         <v>0</v>
       </c>
-      <c r="E148" s="13"/>
+      <c r="E148" s="12">
+        <v>574</v>
+      </c>
       <c r="F148" s="13">
         <v>40420</v>
       </c>
@@ -15247,8 +15281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17891,7 +17925,9 @@
       <c r="D132" s="15">
         <v>0</v>
       </c>
-      <c r="E132" s="15"/>
+      <c r="E132" s="15">
+        <v>560</v>
+      </c>
       <c r="F132" s="15">
         <v>43106</v>
       </c>
@@ -17929,7 +17965,9 @@
       <c r="D134" s="15">
         <v>0</v>
       </c>
-      <c r="E134" s="15"/>
+      <c r="E134" s="15">
+        <v>560</v>
+      </c>
       <c r="F134" s="15">
         <v>43106</v>
       </c>
@@ -18007,7 +18045,9 @@
       <c r="D138" s="15">
         <v>0</v>
       </c>
-      <c r="E138" s="15"/>
+      <c r="E138" s="15">
+        <v>560</v>
+      </c>
       <c r="F138" s="15">
         <v>43106</v>
       </c>
@@ -18045,7 +18085,9 @@
       <c r="D140" s="15">
         <v>0</v>
       </c>
-      <c r="E140" s="15"/>
+      <c r="E140" s="15">
+        <v>560</v>
+      </c>
       <c r="F140" s="15">
         <v>43106</v>
       </c>
@@ -18063,7 +18105,9 @@
       <c r="D141" s="15">
         <v>0</v>
       </c>
-      <c r="E141" s="15"/>
+      <c r="E141" s="15">
+        <v>560</v>
+      </c>
       <c r="F141" s="15">
         <v>43106</v>
       </c>
@@ -18261,7 +18305,9 @@
       <c r="D151" s="15">
         <v>0</v>
       </c>
-      <c r="E151" s="15"/>
+      <c r="E151" s="15">
+        <v>560</v>
+      </c>
       <c r="F151" s="15">
         <v>43106</v>
       </c>
@@ -18279,7 +18325,9 @@
       <c r="D152" s="15">
         <v>0</v>
       </c>
-      <c r="E152" s="15"/>
+      <c r="E152" s="15">
+        <v>560</v>
+      </c>
       <c r="F152" s="15">
         <v>43106</v>
       </c>
@@ -18397,7 +18445,9 @@
       <c r="D158" s="15">
         <v>0</v>
       </c>
-      <c r="E158" s="15"/>
+      <c r="E158" s="15">
+        <v>560</v>
+      </c>
       <c r="F158" s="15">
         <v>43106</v>
       </c>
@@ -18455,7 +18505,9 @@
       <c r="D161" s="15">
         <v>0</v>
       </c>
-      <c r="E161" s="15"/>
+      <c r="E161" s="15">
+        <v>560</v>
+      </c>
       <c r="F161" s="15">
         <v>43106</v>
       </c>
@@ -18530,7 +18582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -3577,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
@@ -6378,7 +6378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
@@ -9259,7 +9259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
@@ -12200,7 +12200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
@@ -15281,7 +15281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
@@ -18582,8 +18582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21766,7 +21766,9 @@
       <c r="D159" s="7">
         <v>0</v>
       </c>
-      <c r="E159" s="7"/>
+      <c r="E159" s="7">
+        <v>577</v>
+      </c>
       <c r="F159" s="7">
         <v>51000</v>
       </c>
@@ -21824,7 +21826,9 @@
       <c r="D162" s="7">
         <v>0</v>
       </c>
-      <c r="E162" s="7"/>
+      <c r="E162" s="7">
+        <v>577</v>
+      </c>
       <c r="F162" s="7">
         <v>51000</v>
       </c>

--- a/ScienceAdmissionScore.xlsx
+++ b/ScienceAdmissionScore.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xuhao.du.UWA\Peter Du\University entrance exam\Chinese_University_Entrance_Ranking_GD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xuhao.du.UWA\Peter Du\University entrance exam\Chinese_University_Entrance_Ranking_GD\Chinese_University_Entrance_Ranking_GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="2014" sheetId="5" r:id="rId5"/>
     <sheet name="2015" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="379">
   <si>
     <t>院校号</t>
   </si>
@@ -2986,10 +2986,16 @@
     </r>
   </si>
   <si>
-    <t>汕头大学（汕头大学医）</t>
-  </si>
-  <si>
-    <t>汕头大学（汕头大学医学）</t>
+    <t>上海交通大学医学</t>
+  </si>
+  <si>
+    <t>复旦大学医学</t>
+  </si>
+  <si>
+    <t>浙江大学医学</t>
+  </si>
+  <si>
+    <t>汕头大学(汕头大学医学)</t>
   </si>
   <si>
     <r>
@@ -3012,7 +3018,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>汕头大学医</t>
+      <t>汕头大学医学</t>
     </r>
     <r>
       <rPr>
@@ -3046,7 +3052,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>汕头大学医</t>
+      <t>汕头大学医学</t>
     </r>
     <r>
       <rPr>
@@ -3058,18 +3064,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>上海交通大学医学</t>
-  </si>
-  <si>
-    <t>复旦大学医学</t>
-  </si>
-  <si>
-    <t>上海交通大学医</t>
-  </si>
-  <si>
-    <t>浙江大学医学</t>
   </si>
 </sst>
 </file>
@@ -3577,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5953,7 +5947,7 @@
         <v>240</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C119" s="2">
         <v>246</v>
@@ -6379,7 +6373,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6634,7 +6628,7 @@
         <v>19248</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
@@ -7914,7 +7908,7 @@
         <v>80001</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C77" s="4">
         <v>246</v>
@@ -9259,8 +9253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9475,7 +9469,7 @@
         <v>19248</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -11035,7 +11029,7 @@
         <v>80001</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C89" s="5">
         <v>242</v>
@@ -12200,8 +12194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12336,7 +12330,7 @@
         <v>19248</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C7" s="12">
         <v>8</v>
@@ -12376,7 +12370,7 @@
         <v>19246</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C9" s="12">
         <v>15</v>
@@ -13351,12 +13345,12 @@
         <v>17854</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="11">
         <v>80001</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C58" s="12">
         <v>242</v>
@@ -15282,7 +15276,7 @@
   <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15497,7 +15491,7 @@
         <v>19246</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C11" s="15">
         <v>11</v>
@@ -15597,7 +15591,7 @@
         <v>19248</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C16" s="15">
         <v>7</v>
@@ -16177,7 +16171,7 @@
         <v>80001</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C45" s="15">
         <v>242</v>
@@ -18582,8 +18576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18698,7 +18692,7 @@
         <v>19248</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -18718,7 +18712,7 @@
         <v>19246</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -19098,7 +19092,7 @@
         <v>19335</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -20438,7 +20432,7 @@
         <v>80001</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C93" s="7">
         <v>240</v>
